--- a/sch/components.xlsx
+++ b/sch/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miha\Desktop\vezje-idp\kicad\sch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66667DF9-155D-4464-A506-328CD4800B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7835F9-2275-499B-89E0-5C8DAB8BD279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6172FD7F-16CD-47D1-A3E4-D63AC8EC044E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="428">
   <si>
     <t>ID</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>S14</t>
   </si>
   <si>
-    <t>C74</t>
-  </si>
-  <si>
     <t>S367</t>
   </si>
   <si>
@@ -1125,9 +1122,6 @@
     <t>33R</t>
   </si>
   <si>
-    <t>LS74</t>
-  </si>
-  <si>
     <t>MC14411</t>
   </si>
   <si>
@@ -1146,24 +1140,12 @@
     <t>4K7</t>
   </si>
   <si>
-    <t>P4?</t>
-  </si>
-  <si>
-    <t>P2?</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
     <t>4.7K</t>
   </si>
   <si>
-    <t>4K7?</t>
-  </si>
-  <si>
-    <t>Z80CTC</t>
-  </si>
-  <si>
     <t>S20</t>
   </si>
   <si>
@@ -1215,9 +1197,6 @@
     <t>S38</t>
   </si>
   <si>
-    <t>S629?</t>
-  </si>
-  <si>
     <t>S393</t>
   </si>
   <si>
@@ -1260,9 +1239,6 @@
     <t>Z80 PIO (MK 3881)</t>
   </si>
   <si>
-    <t>P3 / S04</t>
-  </si>
-  <si>
     <t>2n 2 (?)</t>
   </si>
   <si>
@@ -1300,6 +1276,39 @@
   </si>
   <si>
     <t>390pF</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>S629</t>
+  </si>
+  <si>
+    <t>Z80 CTC</t>
+  </si>
+  <si>
+    <t>LS74 / S74</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Read as black-brown-red. Most likely it is green-brown-red (5K1).</t>
+  </si>
+  <si>
+    <t>"E75" (pg. 7)</t>
+  </si>
+  <si>
+    <t>Value Ref3</t>
+  </si>
+  <si>
+    <t>MM2716Q (EPROM)</t>
   </si>
 </sst>
 </file>
@@ -1354,11 +1363,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1673,20 +1682,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A507EC0B-FECA-46C5-861D-53A4B99CDA9D}">
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="15.83984375" customWidth="1"/>
     <col min="4" max="4" width="15.5234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.20703125" customWidth="1"/>
+    <col min="7" max="7" width="31.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.15625" customWidth="1"/>
+    <col min="9" max="9" width="53.9453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>343</v>
       </c>
@@ -1708,8 +1719,14 @@
       <c r="G1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>79</v>
       </c>
@@ -1720,7 +1737,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1729,11 +1746,11 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>71</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E3">
@@ -1743,7 +1760,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>96</v>
       </c>
@@ -1760,7 +1777,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1777,7 +1794,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>199</v>
       </c>
@@ -1794,7 +1811,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>121</v>
       </c>
@@ -1805,7 +1822,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1814,7 +1831,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>75</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1834,7 +1851,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>97</v>
       </c>
@@ -1851,7 +1868,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>83</v>
       </c>
@@ -1862,7 +1879,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1871,7 +1888,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>98</v>
       </c>
@@ -1888,7 +1905,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>99</v>
       </c>
@@ -1905,7 +1922,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1922,7 +1939,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>101</v>
       </c>
@@ -1939,7 +1956,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>102</v>
       </c>
@@ -1956,7 +1973,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>174</v>
       </c>
@@ -1967,7 +1984,7 @@
         <v>168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1987,7 +2004,7 @@
         <v>169</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2017,7 +2034,7 @@
       <c r="A19">
         <v>72</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E19">
@@ -2038,7 +2055,7 @@
         <v>239</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2058,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2081,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2097,7 +2114,7 @@
       <c r="A23">
         <v>61</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E23">
@@ -2118,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2141,7 +2158,7 @@
         <v>242</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2154,7 +2171,7 @@
       <c r="A26">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E26">
@@ -2175,7 +2192,7 @@
         <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2195,7 +2212,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2215,7 +2232,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2235,7 +2252,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2265,7 +2282,7 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E32">
@@ -2282,7 +2299,7 @@
       <c r="A33">
         <v>15</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E33">
@@ -2299,7 +2316,7 @@
       <c r="A34">
         <v>24</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E34">
@@ -2316,7 +2333,7 @@
       <c r="A35">
         <v>48</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E35">
@@ -2333,7 +2350,7 @@
       <c r="A36">
         <v>74</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E36">
@@ -2350,7 +2367,7 @@
       <c r="A37">
         <v>108</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E37">
@@ -2367,7 +2384,7 @@
       <c r="A38">
         <v>125</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E38">
@@ -2384,7 +2401,7 @@
       <c r="A39">
         <v>130</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E39">
@@ -2401,7 +2418,7 @@
       <c r="A40">
         <v>144</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E40">
@@ -2418,7 +2435,7 @@
       <c r="A41">
         <v>163</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E41">
@@ -2435,7 +2452,7 @@
       <c r="A42">
         <v>186</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E42">
@@ -2452,7 +2469,7 @@
       <c r="A43">
         <v>195</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E43">
@@ -2469,7 +2486,7 @@
       <c r="A44">
         <v>213</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E44">
@@ -2486,7 +2503,7 @@
       <c r="A45">
         <v>221</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E45">
@@ -2503,7 +2520,7 @@
       <c r="A46">
         <v>248</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E46">
@@ -2520,7 +2537,7 @@
       <c r="A47">
         <v>264</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E47">
@@ -2567,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2636,7 +2653,7 @@
         <v>254</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2659,7 +2676,7 @@
         <v>247</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2682,7 +2699,7 @@
         <v>248</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2705,7 +2722,7 @@
         <v>249</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2728,7 +2745,7 @@
         <v>250</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2751,7 +2768,7 @@
         <v>251</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2774,7 +2791,7 @@
         <v>252</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2797,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2820,7 +2837,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2843,7 +2860,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2866,7 +2883,7 @@
         <v>49</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2889,7 +2906,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2912,7 +2929,7 @@
         <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2935,7 +2952,7 @@
         <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2958,7 +2975,7 @@
         <v>31</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2981,7 +2998,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3027,7 +3044,7 @@
         <v>23</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3050,7 +3067,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3073,7 +3090,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3096,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3119,7 +3136,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3142,7 +3159,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3165,7 +3182,7 @@
         <v>120</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3188,7 +3205,7 @@
         <v>121</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3211,7 +3228,7 @@
         <v>119</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3234,7 +3251,7 @@
         <v>110</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3256,8 +3273,8 @@
       <c r="C79" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>353</v>
+      <c r="D79" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3280,7 +3297,7 @@
         <v>106</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3303,7 +3320,7 @@
         <v>107</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3326,7 +3343,7 @@
         <v>108</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3349,7 +3366,7 @@
         <v>109</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3372,7 +3389,7 @@
         <v>92</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3395,7 +3412,7 @@
         <v>91</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3418,7 +3435,7 @@
         <v>74</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3441,7 +3458,7 @@
         <v>101</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3464,7 +3481,7 @@
         <v>75</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3487,7 +3504,7 @@
         <v>82</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3533,7 +3550,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3556,7 +3573,7 @@
         <v>76</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3657,7 +3674,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>136</v>
       </c>
@@ -3668,7 +3685,7 @@
         <v>132</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3680,7 +3697,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>137</v>
       </c>
@@ -3691,7 +3708,7 @@
         <v>133</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3703,7 +3720,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>129</v>
       </c>
@@ -3714,7 +3731,7 @@
         <v>126</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3726,7 +3743,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>126</v>
       </c>
@@ -3737,7 +3754,7 @@
         <v>122</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3749,7 +3766,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>26</v>
       </c>
@@ -3760,7 +3777,7 @@
         <v>26</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3772,7 +3789,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>127</v>
       </c>
@@ -3782,7 +3799,7 @@
       <c r="C102" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="5">
         <v>2716</v>
       </c>
       <c r="E102">
@@ -3795,7 +3812,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>128</v>
       </c>
@@ -3805,7 +3822,7 @@
       <c r="C103" t="s">
         <v>124</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="5">
         <v>2716</v>
       </c>
       <c r="E103">
@@ -3815,10 +3832,13 @@
         <v>3.1</v>
       </c>
       <c r="G103" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>279</v>
+      </c>
+      <c r="H103" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>141</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>134</v>
       </c>
@@ -3864,7 +3884,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>133</v>
       </c>
@@ -3875,7 +3895,7 @@
         <v>129</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3887,7 +3907,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>132</v>
       </c>
@@ -3898,7 +3918,7 @@
         <v>128</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3910,7 +3930,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>131</v>
       </c>
@@ -3933,7 +3953,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>172</v>
       </c>
@@ -3944,7 +3964,7 @@
         <v>166</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3956,7 +3976,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>173</v>
       </c>
@@ -3979,7 +3999,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>145</v>
       </c>
@@ -4002,7 +4022,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>27</v>
       </c>
@@ -4013,7 +4033,7 @@
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -4105,7 +4125,7 @@
         <v>177</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -4128,7 +4148,7 @@
         <v>175</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -4151,7 +4171,7 @@
         <v>161</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4174,7 +4194,7 @@
         <v>162</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -4197,7 +4217,7 @@
         <v>163</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -4220,7 +4240,7 @@
         <v>164</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -4243,7 +4263,7 @@
         <v>165</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4266,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4289,7 +4309,7 @@
         <v>171</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4404,7 +4424,7 @@
         <v>218</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -4427,7 +4447,7 @@
         <v>215</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -4450,7 +4470,7 @@
         <v>205</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -4473,7 +4493,7 @@
         <v>206</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -4496,7 +4516,7 @@
         <v>207</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -4519,7 +4539,7 @@
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -4539,10 +4559,10 @@
         <v>208</v>
       </c>
       <c r="C135" t="s">
-        <v>201</v>
+        <v>425</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -4562,10 +4582,10 @@
         <v>201</v>
       </c>
       <c r="C136" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -4585,10 +4605,10 @@
         <v>199</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -4611,7 +4631,7 @@
         <v>193</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -4634,7 +4654,7 @@
         <v>203</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -4749,7 +4769,7 @@
         <v>219</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -4772,7 +4792,7 @@
         <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -4795,7 +4815,7 @@
         <v>216</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -4818,7 +4838,7 @@
         <v>209</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -4841,7 +4861,7 @@
         <v>210</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -4864,7 +4884,7 @@
         <v>211</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -4887,7 +4907,7 @@
         <v>202</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -4933,7 +4953,7 @@
         <v>197</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -4956,7 +4976,7 @@
         <v>194</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -5450,7 +5470,7 @@
         <v>62</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -5473,7 +5493,7 @@
         <v>50</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -5513,7 +5533,7 @@
         <v>47</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -5533,7 +5553,7 @@
         <v>46</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -5573,7 +5593,7 @@
         <v>44</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -5593,7 +5613,7 @@
         <v>43</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -5636,7 +5656,7 @@
         <v>33</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -5682,7 +5702,7 @@
         <v>63</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -5728,7 +5748,7 @@
         <v>104</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -5748,7 +5768,7 @@
         <v>105</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -5768,7 +5788,7 @@
         <v>159</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -5834,7 +5854,7 @@
         <v>21</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -5857,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -5877,10 +5897,10 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -5903,7 +5923,7 @@
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -5960,7 +5980,7 @@
         <v>64</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -6085,7 +6105,7 @@
         <v>103</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -6165,7 +6185,7 @@
         <v>65</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -6248,7 +6268,7 @@
         <v>148</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -6271,7 +6291,7 @@
         <v>149</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -6294,7 +6314,7 @@
         <v>150</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -6317,7 +6337,7 @@
         <v>151</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -6340,7 +6360,7 @@
         <v>152</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -6352,7 +6372,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>158</v>
       </c>
@@ -6363,7 +6383,7 @@
         <v>153</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -6375,7 +6395,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>159</v>
       </c>
@@ -6386,7 +6406,7 @@
         <v>154</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -6398,7 +6418,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>67</v>
       </c>
@@ -6409,7 +6429,7 @@
         <v>66</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -6421,7 +6441,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>160</v>
       </c>
@@ -6432,7 +6452,7 @@
         <v>155</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -6444,7 +6464,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>161</v>
       </c>
@@ -6455,7 +6475,7 @@
         <v>156</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -6467,7 +6487,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>162</v>
       </c>
@@ -6478,7 +6498,7 @@
         <v>157</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -6490,7 +6510,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>176</v>
       </c>
@@ -6501,7 +6521,7 @@
         <v>170</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -6512,8 +6532,11 @@
       <c r="G231" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I231" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>196</v>
       </c>
@@ -6524,7 +6547,7 @@
         <v>188</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -6536,7 +6559,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>200</v>
       </c>
@@ -6547,7 +6570,7 @@
         <v>192</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -6559,7 +6582,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>204</v>
       </c>
@@ -6576,7 +6599,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>207</v>
       </c>
@@ -6593,7 +6616,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>178</v>
       </c>
@@ -6604,7 +6627,7 @@
         <v>172</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -6616,7 +6639,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>179</v>
       </c>
@@ -6627,7 +6650,7 @@
         <v>173</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -6639,7 +6662,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>230</v>
       </c>
@@ -6650,7 +6673,7 @@
         <v>220</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -6662,7 +6685,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>231</v>
       </c>
@@ -6673,7 +6696,7 @@
         <v>221</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -6685,7 +6708,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>232</v>
       </c>
@@ -6696,7 +6719,7 @@
         <v>222</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -6719,7 +6742,7 @@
         <v>223</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -6742,7 +6765,7 @@
         <v>224</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -6758,14 +6781,14 @@
       <c r="A243">
         <v>235</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C243" t="s">
         <v>225</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -6788,7 +6811,7 @@
         <v>226</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -6811,7 +6834,7 @@
         <v>227</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -6834,7 +6857,7 @@
         <v>228</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -6857,7 +6880,7 @@
         <v>229</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -6880,7 +6903,7 @@
         <v>67</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -6903,7 +6926,7 @@
         <v>230</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -6926,7 +6949,7 @@
         <v>231</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -6949,7 +6972,7 @@
         <v>232</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -6972,7 +6995,7 @@
         <v>233</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -6995,7 +7018,7 @@
         <v>234</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -7018,7 +7041,7 @@
         <v>235</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -7041,7 +7064,7 @@
         <v>236</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -7064,7 +7087,7 @@
         <v>237</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -7087,7 +7110,7 @@
         <v>256</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -7110,7 +7133,7 @@
         <v>257</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -7133,7 +7156,7 @@
         <v>258</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -7156,7 +7179,7 @@
         <v>259</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -7179,7 +7202,7 @@
         <v>260</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -7202,7 +7225,7 @@
         <v>261</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -7225,7 +7248,7 @@
         <v>262</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -7248,7 +7271,7 @@
         <v>263</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -7271,7 +7294,7 @@
         <v>213</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -7291,7 +7314,7 @@
         <v>240</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -7314,7 +7337,7 @@
         <v>241</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -7337,7 +7360,7 @@
         <v>243</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -7357,7 +7380,7 @@
         <v>68</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -7403,7 +7426,7 @@
         <v>217</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -7426,7 +7449,7 @@
         <v>189</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -7449,7 +7472,7 @@
         <v>190</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -7555,7 +7578,7 @@
         <v>78</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -7575,7 +7598,7 @@
         <v>79</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -7636,7 +7659,7 @@
         <v>11</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -7659,7 +7682,7 @@
         <v>158</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E283">
         <v>1</v>

--- a/sch/components.xlsx
+++ b/sch/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miha\Desktop\vezje-idp\kicad\sch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7835F9-2275-499B-89E0-5C8DAB8BD279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C65A4B-2133-462B-A69A-AB3DCDD4AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6172FD7F-16CD-47D1-A3E4-D63AC8EC044E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="431">
   <si>
     <t>ID</t>
   </si>
@@ -1309,6 +1309,15 @@
   </si>
   <si>
     <t>MM2716Q (EPROM)</t>
+  </si>
+  <si>
+    <t># Pads</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Square</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1365,9 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,22 +1688,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A507EC0B-FECA-46C5-861D-53A4B99CDA9D}">
-  <dimension ref="A1:I283"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="J278" sqref="J278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="15.83984375" customWidth="1"/>
     <col min="4" max="4" width="15.5234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.15625" customWidth="1"/>
-    <col min="9" max="9" width="53.9453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.15625" customWidth="1"/>
+    <col min="12" max="12" width="53.9453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>343</v>
       </c>
@@ -1714,19 +1720,28 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>428</v>
       </c>
       <c r="G1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>426</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>79</v>
       </c>
@@ -1743,10 +1758,20 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f>F2-H2</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>71</v>
       </c>
@@ -1757,10 +1782,20 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">F3-H3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>96</v>
       </c>
@@ -1771,13 +1806,23 @@
         <v>1</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1788,13 +1833,23 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>199</v>
       </c>
@@ -1805,13 +1860,23 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>5.2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>121</v>
       </c>
@@ -1828,10 +1893,20 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>75</v>
       </c>
@@ -1848,10 +1923,20 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>97</v>
       </c>
@@ -1862,13 +1947,23 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>83</v>
       </c>
@@ -1885,10 +1980,20 @@
         <v>1</v>
       </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>98</v>
       </c>
@@ -1899,13 +2004,23 @@
         <v>1</v>
       </c>
       <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>99</v>
       </c>
@@ -1916,13 +2031,23 @@
         <v>1</v>
       </c>
       <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1933,13 +2058,23 @@
         <v>1</v>
       </c>
       <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>101</v>
       </c>
@@ -1950,13 +2085,23 @@
         <v>1</v>
       </c>
       <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>102</v>
       </c>
@@ -1967,13 +2112,23 @@
         <v>1</v>
       </c>
       <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>174</v>
       </c>
@@ -1990,10 +2145,20 @@
         <v>1</v>
       </c>
       <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>4.2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>175</v>
       </c>
@@ -2010,10 +2175,20 @@
         <v>1</v>
       </c>
       <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>203</v>
       </c>
@@ -2024,13 +2199,23 @@
         <v>1</v>
       </c>
       <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>5.2</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>72</v>
       </c>
@@ -2041,10 +2226,20 @@
         <v>1</v>
       </c>
       <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>250</v>
       </c>
@@ -2061,10 +2256,20 @@
         <v>1</v>
       </c>
       <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>6.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>10</v>
       </c>
@@ -2081,13 +2286,23 @@
         <v>1</v>
       </c>
       <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2104,13 +2319,23 @@
         <v>1</v>
       </c>
       <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>61</v>
       </c>
@@ -2121,10 +2346,20 @@
         <v>1</v>
       </c>
       <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1.6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>8</v>
       </c>
@@ -2141,13 +2376,23 @@
         <v>1</v>
       </c>
       <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>253</v>
       </c>
@@ -2164,10 +2409,20 @@
         <v>1</v>
       </c>
       <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>6.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>62</v>
       </c>
@@ -2178,10 +2433,20 @@
         <v>1</v>
       </c>
       <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>52</v>
       </c>
@@ -2198,10 +2463,20 @@
         <v>1</v>
       </c>
       <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>37</v>
       </c>
@@ -2218,10 +2493,20 @@
         <v>1</v>
       </c>
       <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>34</v>
       </c>
@@ -2238,10 +2523,20 @@
         <v>1</v>
       </c>
       <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>35</v>
       </c>
@@ -2258,10 +2553,20 @@
         <v>1</v>
       </c>
       <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1.4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>95</v>
       </c>
@@ -2272,13 +2577,23 @@
         <v>1</v>
       </c>
       <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2289,13 +2604,24 @@
         <v>4</v>
       </c>
       <c r="F32">
+        <f>E32*2</f>
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>15</v>
       </c>
@@ -2306,13 +2632,24 @@
         <v>2</v>
       </c>
       <c r="F33">
+        <f t="shared" ref="F33:F47" si="1">E33*2</f>
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>1.2</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>24</v>
       </c>
@@ -2323,13 +2660,24 @@
         <v>1</v>
       </c>
       <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1.3</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>48</v>
       </c>
@@ -2340,13 +2688,24 @@
         <v>1</v>
       </c>
       <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>1.4</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>74</v>
       </c>
@@ -2357,13 +2716,24 @@
         <v>2</v>
       </c>
       <c r="F36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>2.1</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>108</v>
       </c>
@@ -2374,13 +2744,24 @@
         <v>1</v>
       </c>
       <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>125</v>
       </c>
@@ -2391,13 +2772,24 @@
         <v>4</v>
       </c>
       <c r="F38">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>3.1</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>130</v>
       </c>
@@ -2408,13 +2800,24 @@
         <v>2</v>
       </c>
       <c r="F39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>3.2</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>144</v>
       </c>
@@ -2425,13 +2828,24 @@
         <v>8</v>
       </c>
       <c r="F40">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J40" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>163</v>
       </c>
@@ -2442,13 +2856,24 @@
         <v>2</v>
       </c>
       <c r="F41">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>4.2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>186</v>
       </c>
@@ -2459,13 +2884,24 @@
         <v>4</v>
       </c>
       <c r="F42">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>195</v>
       </c>
@@ -2476,13 +2912,24 @@
         <v>5</v>
       </c>
       <c r="F43">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>5.2</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>213</v>
       </c>
@@ -2493,13 +2940,24 @@
         <v>1</v>
       </c>
       <c r="F44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>5.3</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>221</v>
       </c>
@@ -2510,13 +2968,24 @@
         <v>1</v>
       </c>
       <c r="F45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>5.4</v>
       </c>
-      <c r="G45" t="s">
+      <c r="J45" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>248</v>
       </c>
@@ -2527,13 +2996,24 @@
         <v>2</v>
       </c>
       <c r="F46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>6.1</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>264</v>
       </c>
@@ -2544,13 +3024,24 @@
         <v>1</v>
       </c>
       <c r="F47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>6.2</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>55</v>
       </c>
@@ -2567,13 +3058,23 @@
         <v>1</v>
       </c>
       <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>1.5</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2590,13 +3091,23 @@
         <v>1</v>
       </c>
       <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>193</v>
       </c>
@@ -2613,13 +3124,23 @@
         <v>1</v>
       </c>
       <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>194</v>
       </c>
@@ -2636,13 +3157,23 @@
         <v>1</v>
       </c>
       <c r="F51">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>266</v>
       </c>
@@ -2659,13 +3190,23 @@
         <v>1</v>
       </c>
       <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>6.2</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>258</v>
       </c>
@@ -2682,13 +3223,23 @@
         <v>1</v>
       </c>
       <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>6.1</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>259</v>
       </c>
@@ -2705,13 +3256,23 @@
         <v>1</v>
       </c>
       <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>6.1</v>
       </c>
-      <c r="G54" t="s">
+      <c r="J54" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>260</v>
       </c>
@@ -2728,13 +3289,23 @@
         <v>1</v>
       </c>
       <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>6.1</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>261</v>
       </c>
@@ -2751,13 +3322,23 @@
         <v>1</v>
       </c>
       <c r="F56">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>6.1</v>
       </c>
-      <c r="G56" t="s">
+      <c r="J56" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>262</v>
       </c>
@@ -2774,13 +3355,23 @@
         <v>1</v>
       </c>
       <c r="F57">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>6.1</v>
       </c>
-      <c r="G57" t="s">
+      <c r="J57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>263</v>
       </c>
@@ -2797,13 +3388,23 @@
         <v>1</v>
       </c>
       <c r="F58">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>6.1</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>5</v>
       </c>
@@ -2820,13 +3421,23 @@
         <v>1</v>
       </c>
       <c r="F59">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G59" t="s">
+      <c r="J59" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2843,13 +3454,23 @@
         <v>1</v>
       </c>
       <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>1.5</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2866,13 +3487,23 @@
         <v>1</v>
       </c>
       <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>1.5</v>
       </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>50</v>
       </c>
@@ -2889,13 +3520,23 @@
         <v>1</v>
       </c>
       <c r="F62">
+        <v>16</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>1.4</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>49</v>
       </c>
@@ -2912,13 +3553,23 @@
         <v>1</v>
       </c>
       <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>1.4</v>
       </c>
-      <c r="G63" t="s">
+      <c r="J63" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>29</v>
       </c>
@@ -2935,13 +3586,23 @@
         <v>1</v>
       </c>
       <c r="F64">
+        <v>16</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>1.3</v>
       </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>30</v>
       </c>
@@ -2958,13 +3619,23 @@
         <v>1</v>
       </c>
       <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>1.3</v>
       </c>
-      <c r="G65" t="s">
+      <c r="J65" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>31</v>
       </c>
@@ -2981,13 +3652,23 @@
         <v>1</v>
       </c>
       <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>1.3</v>
       </c>
-      <c r="G66" t="s">
+      <c r="J66" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>21</v>
       </c>
@@ -3004,13 +3685,23 @@
         <v>1</v>
       </c>
       <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="2">F67-H67</f>
+        <v>19</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>1.2</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>56</v>
       </c>
@@ -3027,13 +3718,23 @@
         <v>1</v>
       </c>
       <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>1.5</v>
       </c>
-      <c r="G68" t="s">
+      <c r="J68" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>22</v>
       </c>
@@ -3050,13 +3751,23 @@
         <v>1</v>
       </c>
       <c r="F69">
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>1.2</v>
       </c>
-      <c r="G69" t="s">
+      <c r="J69" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>23</v>
       </c>
@@ -3073,13 +3784,23 @@
         <v>1</v>
       </c>
       <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>1.2</v>
       </c>
-      <c r="G70" t="s">
+      <c r="J70" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>6</v>
       </c>
@@ -3096,13 +3817,23 @@
         <v>1</v>
       </c>
       <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G71" t="s">
+      <c r="J71" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>7</v>
       </c>
@@ -3119,13 +3850,23 @@
         <v>1</v>
       </c>
       <c r="F72">
+        <v>14</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G72" t="s">
+      <c r="J72" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>13</v>
       </c>
@@ -3142,13 +3883,23 @@
         <v>1</v>
       </c>
       <c r="F73">
+        <v>14</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G73" t="s">
+      <c r="J73" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3165,13 +3916,23 @@
         <v>1</v>
       </c>
       <c r="F74">
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G74" t="s">
+      <c r="J74" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>123</v>
       </c>
@@ -3188,13 +3949,23 @@
         <v>1</v>
       </c>
       <c r="F75">
+        <v>14</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
         <v>2.4</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>124</v>
       </c>
@@ -3211,13 +3982,23 @@
         <v>1</v>
       </c>
       <c r="F76">
+        <v>14</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>2.4</v>
       </c>
-      <c r="G76" t="s">
+      <c r="J76" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>122</v>
       </c>
@@ -3234,13 +4015,23 @@
         <v>1</v>
       </c>
       <c r="F77">
+        <v>14</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>2.4</v>
       </c>
-      <c r="G77" t="s">
+      <c r="J77" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>113</v>
       </c>
@@ -3257,13 +4048,23 @@
         <v>1</v>
       </c>
       <c r="F78">
+        <v>20</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
         <v>2.4</v>
       </c>
-      <c r="G78" t="s">
+      <c r="J78" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>40</v>
       </c>
@@ -3280,13 +4081,23 @@
         <v>1</v>
       </c>
       <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
         <v>1.4</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>109</v>
       </c>
@@ -3303,13 +4114,23 @@
         <v>1</v>
       </c>
       <c r="F80">
+        <v>40</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G80" t="s">
+      <c r="J80" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>110</v>
       </c>
@@ -3326,13 +4147,23 @@
         <v>1</v>
       </c>
       <c r="F81">
+        <v>40</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>111</v>
       </c>
@@ -3349,13 +4180,23 @@
         <v>1</v>
       </c>
       <c r="F82">
+        <v>40</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>112</v>
       </c>
@@ -3372,13 +4213,23 @@
         <v>1</v>
       </c>
       <c r="F83">
+        <v>40</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G83" t="s">
+      <c r="J83" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>94</v>
       </c>
@@ -3395,13 +4246,23 @@
         <v>1</v>
       </c>
       <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>93</v>
       </c>
@@ -3418,13 +4279,23 @@
         <v>1</v>
       </c>
       <c r="F85">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G85" t="s">
+      <c r="J85" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>76</v>
       </c>
@@ -3441,13 +4312,23 @@
         <v>1</v>
       </c>
       <c r="F86">
+        <v>14</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>2.1</v>
       </c>
-      <c r="G86" t="s">
+      <c r="J86" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>103</v>
       </c>
@@ -3464,13 +4345,23 @@
         <v>1</v>
       </c>
       <c r="F87">
+        <v>14</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G87" t="s">
+      <c r="J87" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>77</v>
       </c>
@@ -3487,13 +4378,23 @@
         <v>1</v>
       </c>
       <c r="F88">
+        <v>14</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
         <v>2.1</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>84</v>
       </c>
@@ -3510,13 +4411,23 @@
         <v>1</v>
       </c>
       <c r="F89">
+        <v>20</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>2.1</v>
       </c>
-      <c r="G89" t="s">
+      <c r="J89" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>25</v>
       </c>
@@ -3533,13 +4444,23 @@
         <v>1</v>
       </c>
       <c r="F90">
+        <v>14</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>1.3</v>
       </c>
-      <c r="G90" t="s">
+      <c r="J90" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>82</v>
       </c>
@@ -3556,13 +4477,23 @@
         <v>1</v>
       </c>
       <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>2.1</v>
       </c>
-      <c r="G91" t="s">
+      <c r="J91" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>78</v>
       </c>
@@ -3579,13 +4510,23 @@
         <v>1</v>
       </c>
       <c r="F92">
+        <v>14</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>2.1</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>120</v>
       </c>
@@ -3602,10 +4543,20 @@
         <v>1</v>
       </c>
       <c r="F93">
+        <v>14</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>2.4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>138</v>
       </c>
@@ -3622,13 +4573,23 @@
         <v>1</v>
       </c>
       <c r="F94">
+        <v>14</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
         <v>3.3</v>
       </c>
-      <c r="G94" t="s">
+      <c r="J94" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>139</v>
       </c>
@@ -3645,13 +4606,23 @@
         <v>1</v>
       </c>
       <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>3.3</v>
       </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>135</v>
       </c>
@@ -3668,13 +4639,23 @@
         <v>1</v>
       </c>
       <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
         <v>3.2</v>
       </c>
-      <c r="G96" t="s">
+      <c r="J96" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>136</v>
       </c>
@@ -3691,13 +4672,23 @@
         <v>1</v>
       </c>
       <c r="F97">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
         <v>3.2</v>
       </c>
-      <c r="G97" t="s">
+      <c r="J97" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>137</v>
       </c>
@@ -3714,13 +4705,23 @@
         <v>1</v>
       </c>
       <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>3.2</v>
       </c>
-      <c r="G98" t="s">
+      <c r="J98" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>129</v>
       </c>
@@ -3737,13 +4738,23 @@
         <v>1</v>
       </c>
       <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>3.2</v>
       </c>
-      <c r="G99" t="s">
+      <c r="J99" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>126</v>
       </c>
@@ -3760,13 +4771,23 @@
         <v>1</v>
       </c>
       <c r="F100">
+        <v>16</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>3.1</v>
       </c>
-      <c r="G100" t="s">
+      <c r="J100" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>26</v>
       </c>
@@ -3783,13 +4804,23 @@
         <v>1</v>
       </c>
       <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
         <v>1.3</v>
       </c>
-      <c r="G101" t="s">
+      <c r="J101" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>127</v>
       </c>
@@ -3799,20 +4830,30 @@
       <c r="C102" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="2">
         <v>2716</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>3.1</v>
       </c>
-      <c r="G102" t="s">
+      <c r="J102" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>128</v>
       </c>
@@ -3822,23 +4863,33 @@
       <c r="C103" t="s">
         <v>124</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="2">
         <v>2716</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
+        <v>24</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
         <v>3.1</v>
       </c>
-      <c r="G103" t="s">
+      <c r="J103" t="s">
         <v>279</v>
       </c>
-      <c r="H103" t="s">
+      <c r="K103" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>141</v>
       </c>
@@ -3855,13 +4906,23 @@
         <v>1</v>
       </c>
       <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>3.3</v>
       </c>
-      <c r="G104" t="s">
+      <c r="J104" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>134</v>
       </c>
@@ -3878,13 +4939,23 @@
         <v>1</v>
       </c>
       <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>3.2</v>
       </c>
-      <c r="G105" t="s">
+      <c r="J105" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>133</v>
       </c>
@@ -3901,13 +4972,23 @@
         <v>1</v>
       </c>
       <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
         <v>3.2</v>
       </c>
-      <c r="G106" t="s">
+      <c r="J106" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>132</v>
       </c>
@@ -3924,13 +5005,23 @@
         <v>1</v>
       </c>
       <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>3.2</v>
       </c>
-      <c r="G107" t="s">
+      <c r="J107" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>131</v>
       </c>
@@ -3947,13 +5038,23 @@
         <v>1</v>
       </c>
       <c r="F108">
+        <v>40</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>3.2</v>
       </c>
-      <c r="G108" t="s">
+      <c r="J108" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>172</v>
       </c>
@@ -3970,13 +5071,23 @@
         <v>1</v>
       </c>
       <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
         <v>4.2</v>
       </c>
-      <c r="G109" t="s">
+      <c r="J109" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>173</v>
       </c>
@@ -3993,13 +5104,23 @@
         <v>1</v>
       </c>
       <c r="F110">
+        <v>16</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>4.2</v>
       </c>
-      <c r="G110" t="s">
+      <c r="J110" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>145</v>
       </c>
@@ -4016,13 +5137,23 @@
         <v>1</v>
       </c>
       <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G111" t="s">
+      <c r="J111" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>27</v>
       </c>
@@ -4039,13 +5170,23 @@
         <v>1</v>
       </c>
       <c r="F112">
+        <v>20</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>1.3</v>
       </c>
-      <c r="G112" t="s">
+      <c r="J112" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>146</v>
       </c>
@@ -4062,13 +5203,23 @@
         <v>1</v>
       </c>
       <c r="F113">
+        <v>16</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G113" t="s">
+      <c r="J113" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>147</v>
       </c>
@@ -4085,13 +5236,23 @@
         <v>1</v>
       </c>
       <c r="F114">
+        <v>16</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G114" t="s">
+      <c r="J114" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>148</v>
       </c>
@@ -4108,13 +5269,23 @@
         <v>1</v>
       </c>
       <c r="F115">
+        <v>16</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G115" t="s">
+      <c r="J115" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>183</v>
       </c>
@@ -4131,13 +5302,23 @@
         <v>1</v>
       </c>
       <c r="F116">
+        <v>40</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
         <v>4.3</v>
       </c>
-      <c r="G116" t="s">
+      <c r="J116" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>181</v>
       </c>
@@ -4154,13 +5335,23 @@
         <v>1</v>
       </c>
       <c r="F117">
+        <v>24</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <v>4.3</v>
       </c>
-      <c r="G117" t="s">
+      <c r="J117" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>167</v>
       </c>
@@ -4177,13 +5368,23 @@
         <v>1</v>
       </c>
       <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
         <v>4.2</v>
       </c>
-      <c r="G118" t="s">
+      <c r="J118" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>168</v>
       </c>
@@ -4200,13 +5401,23 @@
         <v>1</v>
       </c>
       <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>4.2</v>
       </c>
-      <c r="G119" t="s">
+      <c r="J119" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>169</v>
       </c>
@@ -4223,13 +5434,23 @@
         <v>1</v>
       </c>
       <c r="F120">
+        <v>28</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>4.2</v>
       </c>
-      <c r="G120" t="s">
+      <c r="J120" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>170</v>
       </c>
@@ -4246,13 +5467,23 @@
         <v>1</v>
       </c>
       <c r="F121">
+        <v>16</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>4.2</v>
       </c>
-      <c r="G121" t="s">
+      <c r="J121" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>171</v>
       </c>
@@ -4269,13 +5500,23 @@
         <v>1</v>
       </c>
       <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
         <v>4.2</v>
       </c>
-      <c r="G122" t="s">
+      <c r="J122" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>16</v>
       </c>
@@ -4292,13 +5533,23 @@
         <v>1</v>
       </c>
       <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
         <v>1.2</v>
       </c>
-      <c r="G123" t="s">
+      <c r="J123" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>177</v>
       </c>
@@ -4315,13 +5566,23 @@
         <v>1</v>
       </c>
       <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
         <v>4.2</v>
       </c>
-      <c r="G124" t="s">
+      <c r="J124" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>149</v>
       </c>
@@ -4338,13 +5599,23 @@
         <v>1</v>
       </c>
       <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G125" t="s">
+      <c r="J125" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>150</v>
       </c>
@@ -4361,13 +5632,23 @@
         <v>1</v>
       </c>
       <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G126" t="s">
+      <c r="J126" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>151</v>
       </c>
@@ -4384,13 +5665,23 @@
         <v>1</v>
       </c>
       <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G127" t="s">
+      <c r="J127" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>152</v>
       </c>
@@ -4407,13 +5698,23 @@
         <v>1</v>
       </c>
       <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G128" t="s">
+      <c r="J128" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>228</v>
       </c>
@@ -4430,13 +5731,23 @@
         <v>1</v>
       </c>
       <c r="F129">
+        <v>14</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>5.4</v>
       </c>
-      <c r="G129" t="s">
+      <c r="J129" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>225</v>
       </c>
@@ -4453,13 +5764,23 @@
         <v>1</v>
       </c>
       <c r="F130">
+        <v>16</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
         <v>5.4</v>
       </c>
-      <c r="G130" t="s">
+      <c r="J130" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>214</v>
       </c>
@@ -4476,13 +5797,23 @@
         <v>1</v>
       </c>
       <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="3">F131-H131</f>
+        <v>13</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
         <v>5.3</v>
       </c>
-      <c r="G131" t="s">
+      <c r="J131" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>215</v>
       </c>
@@ -4499,13 +5830,23 @@
         <v>1</v>
       </c>
       <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>5.3</v>
       </c>
-      <c r="G132" t="s">
+      <c r="J132" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>216</v>
       </c>
@@ -4522,13 +5863,23 @@
         <v>1</v>
       </c>
       <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>5.3</v>
       </c>
-      <c r="G133" t="s">
+      <c r="J133" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>17</v>
       </c>
@@ -4545,13 +5896,23 @@
         <v>1</v>
       </c>
       <c r="F134">
+        <v>20</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
         <v>1.2</v>
       </c>
-      <c r="G134" t="s">
+      <c r="J134" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>217</v>
       </c>
@@ -4568,13 +5929,23 @@
         <v>1</v>
       </c>
       <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
         <v>5.3</v>
       </c>
-      <c r="G135" t="s">
+      <c r="J135" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>210</v>
       </c>
@@ -4591,13 +5962,23 @@
         <v>1</v>
       </c>
       <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>5.2</v>
       </c>
-      <c r="G136" t="s">
+      <c r="J136" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>208</v>
       </c>
@@ -4614,13 +5995,23 @@
         <v>1</v>
       </c>
       <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>5.2</v>
       </c>
-      <c r="G137" t="s">
+      <c r="J137" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>201</v>
       </c>
@@ -4637,13 +6028,23 @@
         <v>1</v>
       </c>
       <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>5.2</v>
       </c>
-      <c r="G138" t="s">
+      <c r="J138" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>212</v>
       </c>
@@ -4660,13 +6061,23 @@
         <v>1</v>
       </c>
       <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>5.2</v>
       </c>
-      <c r="G139" t="s">
+      <c r="J139" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>187</v>
       </c>
@@ -4683,13 +6094,23 @@
         <v>1</v>
       </c>
       <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G140" t="s">
+      <c r="J140" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>188</v>
       </c>
@@ -4706,13 +6127,23 @@
         <v>1</v>
       </c>
       <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G141" t="s">
+      <c r="J141" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>189</v>
       </c>
@@ -4729,13 +6160,23 @@
         <v>1</v>
       </c>
       <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G142" t="s">
+      <c r="J142" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>190</v>
       </c>
@@ -4752,13 +6193,23 @@
         <v>1</v>
       </c>
       <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G143" t="s">
+      <c r="J143" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>229</v>
       </c>
@@ -4775,13 +6226,23 @@
         <v>1</v>
       </c>
       <c r="F144">
+        <v>14</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>5.4</v>
       </c>
-      <c r="G144" t="s">
+      <c r="J144" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>18</v>
       </c>
@@ -4798,13 +6259,23 @@
         <v>1</v>
       </c>
       <c r="F145">
+        <v>14</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
         <v>1.2</v>
       </c>
-      <c r="G145" t="s">
+      <c r="J145" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>226</v>
       </c>
@@ -4821,13 +6292,23 @@
         <v>1</v>
       </c>
       <c r="F146">
+        <v>16</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>5.4</v>
       </c>
-      <c r="G146" t="s">
+      <c r="J146" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>218</v>
       </c>
@@ -4844,13 +6325,23 @@
         <v>1</v>
       </c>
       <c r="F147">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>5.3</v>
       </c>
-      <c r="G147" t="s">
+      <c r="J147" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>219</v>
       </c>
@@ -4867,13 +6358,23 @@
         <v>1</v>
       </c>
       <c r="F148">
+        <v>14</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>5.3</v>
       </c>
-      <c r="G148" t="s">
+      <c r="J148" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>220</v>
       </c>
@@ -4890,13 +6391,23 @@
         <v>1</v>
       </c>
       <c r="F149">
+        <v>14</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
         <v>5.3</v>
       </c>
-      <c r="G149" t="s">
+      <c r="J149" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>211</v>
       </c>
@@ -4913,13 +6424,23 @@
         <v>1</v>
       </c>
       <c r="F150">
+        <v>14</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
         <v>5.2</v>
       </c>
-      <c r="G150" t="s">
+      <c r="J150" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>209</v>
       </c>
@@ -4936,13 +6457,23 @@
         <v>1</v>
       </c>
       <c r="F151">
+        <v>14</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>5.2</v>
       </c>
-      <c r="G151" t="s">
+      <c r="J151" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>206</v>
       </c>
@@ -4959,13 +6490,23 @@
         <v>1</v>
       </c>
       <c r="F152">
+        <v>14</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>5.2</v>
       </c>
-      <c r="G152" t="s">
+      <c r="J152" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>202</v>
       </c>
@@ -4982,13 +6523,23 @@
         <v>1</v>
       </c>
       <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
         <v>5.2</v>
       </c>
-      <c r="G153" t="s">
+      <c r="J153" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>191</v>
       </c>
@@ -5005,13 +6556,23 @@
         <v>1</v>
       </c>
       <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G154" t="s">
+      <c r="J154" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>192</v>
       </c>
@@ -5028,13 +6589,23 @@
         <v>1</v>
       </c>
       <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G155" t="s">
+      <c r="J155" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>73</v>
       </c>
@@ -5045,13 +6616,24 @@
         <v>1</v>
       </c>
       <c r="F156">
+        <v>34</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f>F156</f>
+        <v>34</v>
+      </c>
+      <c r="I156">
         <v>1.6</v>
       </c>
-      <c r="G156" t="s">
+      <c r="J156" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>60</v>
       </c>
@@ -5062,13 +6644,24 @@
         <v>1</v>
       </c>
       <c r="F157">
+        <v>64</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" ref="H157:H180" si="4">F157</f>
+        <v>64</v>
+      </c>
+      <c r="I157">
         <v>1.6</v>
       </c>
-      <c r="G157" t="s">
+      <c r="J157" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>53</v>
       </c>
@@ -5079,13 +6672,24 @@
         <v>1</v>
       </c>
       <c r="F158">
+        <v>3</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I158">
         <v>1.5</v>
       </c>
-      <c r="G158" t="s">
+      <c r="J158" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>70</v>
       </c>
@@ -5096,13 +6700,24 @@
         <v>1</v>
       </c>
       <c r="F159">
+        <v>50</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="I159">
         <v>1.6</v>
       </c>
-      <c r="G159" t="s">
+      <c r="J159" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>54</v>
       </c>
@@ -5113,13 +6728,24 @@
         <v>1</v>
       </c>
       <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I160">
         <v>1.5</v>
       </c>
-      <c r="G160" t="s">
+      <c r="J160" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>185</v>
       </c>
@@ -5130,13 +6756,24 @@
         <v>1</v>
       </c>
       <c r="F161">
+        <v>40</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I161">
         <v>4.3</v>
       </c>
-      <c r="G161" t="s">
+      <c r="J161" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>142</v>
       </c>
@@ -5147,13 +6784,24 @@
         <v>1</v>
       </c>
       <c r="F162">
+        <v>26</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="I162">
         <v>3.3</v>
       </c>
-      <c r="G162" t="s">
+      <c r="J162" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>143</v>
       </c>
@@ -5164,13 +6812,24 @@
         <v>1</v>
       </c>
       <c r="F163">
+        <v>26</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="I163">
         <v>3.3</v>
       </c>
-      <c r="G163" t="s">
+      <c r="J163" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>184</v>
       </c>
@@ -5181,13 +6840,24 @@
         <v>1</v>
       </c>
       <c r="F164">
+        <v>26</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="I164">
         <v>4.3</v>
       </c>
-      <c r="G164" t="s">
+      <c r="J164" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>277</v>
       </c>
@@ -5198,13 +6868,24 @@
         <v>1</v>
       </c>
       <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>6.2</v>
       </c>
-      <c r="G165" t="s">
+      <c r="J165" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>166</v>
       </c>
@@ -5215,13 +6896,24 @@
         <v>1</v>
       </c>
       <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>4.2</v>
       </c>
-      <c r="G166" t="s">
+      <c r="J166" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>257</v>
       </c>
@@ -5232,13 +6924,24 @@
         <v>1</v>
       </c>
       <c r="F167">
+        <v>12</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I167">
         <v>6.1</v>
       </c>
-      <c r="G167" t="s">
+      <c r="J167" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>19</v>
       </c>
@@ -5249,13 +6952,24 @@
         <v>1</v>
       </c>
       <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I168">
         <v>1.2</v>
       </c>
-      <c r="G168" t="s">
+      <c r="J168" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>265</v>
       </c>
@@ -5266,13 +6980,24 @@
         <v>1</v>
       </c>
       <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I169">
         <v>6.2</v>
       </c>
-      <c r="G169" t="s">
+      <c r="J169" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>224</v>
       </c>
@@ -5283,13 +7008,24 @@
         <v>1</v>
       </c>
       <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I170">
         <v>5.4</v>
       </c>
-      <c r="G170" t="s">
+      <c r="J170" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>280</v>
       </c>
@@ -5300,13 +7036,24 @@
         <v>1</v>
       </c>
       <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I171">
         <v>6.2</v>
       </c>
-      <c r="G171" t="s">
+      <c r="J171" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>279</v>
       </c>
@@ -5317,13 +7064,24 @@
         <v>1</v>
       </c>
       <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>6.2</v>
       </c>
-      <c r="G172" t="s">
+      <c r="J172" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>267</v>
       </c>
@@ -5334,13 +7092,24 @@
         <v>1</v>
       </c>
       <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>6.2</v>
       </c>
-      <c r="G173" t="s">
+      <c r="J173" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>222</v>
       </c>
@@ -5351,13 +7120,24 @@
         <v>1</v>
       </c>
       <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I174">
         <v>5.4</v>
       </c>
-      <c r="G174" t="s">
+      <c r="J174" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>281</v>
       </c>
@@ -5368,13 +7148,24 @@
         <v>1</v>
       </c>
       <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I175">
         <v>6.2</v>
       </c>
-      <c r="G175" t="s">
+      <c r="J175" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>140</v>
       </c>
@@ -5385,13 +7176,24 @@
         <v>1</v>
       </c>
       <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I176">
         <v>3.3</v>
       </c>
-      <c r="G176" t="s">
+      <c r="J176" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>282</v>
       </c>
@@ -5402,13 +7204,24 @@
         <v>1</v>
       </c>
       <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I177">
         <v>6.2</v>
       </c>
-      <c r="G177" t="s">
+      <c r="J177" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>278</v>
       </c>
@@ -5419,13 +7232,24 @@
         <v>1</v>
       </c>
       <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I178">
         <v>6.2</v>
       </c>
-      <c r="G178" t="s">
+      <c r="J178" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>182</v>
       </c>
@@ -5436,13 +7260,24 @@
         <v>1</v>
       </c>
       <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I179">
         <v>4.3</v>
       </c>
-      <c r="G179" t="s">
+      <c r="J179" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>180</v>
       </c>
@@ -5453,13 +7288,24 @@
         <v>1</v>
       </c>
       <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I180">
         <v>4.3</v>
       </c>
-      <c r="G180" t="s">
+      <c r="J180" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>63</v>
       </c>
@@ -5476,13 +7322,23 @@
         <v>1</v>
       </c>
       <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
         <v>1.6</v>
       </c>
-      <c r="G181" t="s">
+      <c r="J181" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>51</v>
       </c>
@@ -5499,10 +7355,20 @@
         <v>1</v>
       </c>
       <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
         <v>1.5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>38</v>
       </c>
@@ -5519,10 +7385,20 @@
         <v>1</v>
       </c>
       <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
         <v>1.4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>46</v>
       </c>
@@ -5539,10 +7415,20 @@
         <v>1</v>
       </c>
       <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
         <v>1.4</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>45</v>
       </c>
@@ -5559,10 +7445,20 @@
         <v>1</v>
       </c>
       <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
         <v>1.4</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>44</v>
       </c>
@@ -5579,10 +7475,20 @@
         <v>1</v>
       </c>
       <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
         <v>1.4</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>43</v>
       </c>
@@ -5599,10 +7505,20 @@
         <v>1</v>
       </c>
       <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>1.4</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>42</v>
       </c>
@@ -5619,10 +7535,20 @@
         <v>1</v>
       </c>
       <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1.4</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>33</v>
       </c>
@@ -5639,13 +7565,23 @@
         <v>1</v>
       </c>
       <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1.4</v>
       </c>
-      <c r="G189" t="s">
+      <c r="J189" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>39</v>
       </c>
@@ -5662,13 +7598,23 @@
         <v>1</v>
       </c>
       <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
         <v>1.4</v>
       </c>
-      <c r="G190" t="s">
+      <c r="J190" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>47</v>
       </c>
@@ -5685,13 +7631,23 @@
         <v>1</v>
       </c>
       <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1.4</v>
       </c>
-      <c r="G191" t="s">
+      <c r="J191" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>64</v>
       </c>
@@ -5708,13 +7664,23 @@
         <v>1</v>
       </c>
       <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
         <v>1.6</v>
       </c>
-      <c r="G192" t="s">
+      <c r="J192" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>28</v>
       </c>
@@ -5731,13 +7697,23 @@
         <v>1</v>
       </c>
       <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
         <v>1.3</v>
       </c>
-      <c r="G193" t="s">
+      <c r="J193" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>106</v>
       </c>
@@ -5754,10 +7730,20 @@
         <v>1</v>
       </c>
       <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>107</v>
       </c>
@@ -5774,10 +7760,20 @@
         <v>1</v>
       </c>
       <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G258" si="5">F195-H195</f>
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>165</v>
       </c>
@@ -5794,13 +7790,23 @@
         <v>1</v>
       </c>
       <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
         <v>4.2</v>
       </c>
-      <c r="G196" t="s">
+      <c r="J196" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>36</v>
       </c>
@@ -5817,10 +7823,20 @@
         <v>1</v>
       </c>
       <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
         <v>1.4</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>249</v>
       </c>
@@ -5837,13 +7853,23 @@
         <v>1</v>
       </c>
       <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
         <v>6.1</v>
       </c>
-      <c r="G198" t="s">
+      <c r="J198" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>20</v>
       </c>
@@ -5860,13 +7886,23 @@
         <v>1</v>
       </c>
       <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
         <v>1.2</v>
       </c>
-      <c r="G199" t="s">
+      <c r="J199" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>2</v>
       </c>
@@ -5883,13 +7919,23 @@
         <v>1</v>
       </c>
       <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G200" t="s">
+      <c r="J200" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>3</v>
       </c>
@@ -5906,13 +7952,23 @@
         <v>1</v>
       </c>
       <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G201" t="s">
+      <c r="J201" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>12</v>
       </c>
@@ -5929,13 +7985,23 @@
         <v>1</v>
       </c>
       <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G202" t="s">
+      <c r="J202" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>85</v>
       </c>
@@ -5946,13 +8012,23 @@
         <v>1</v>
       </c>
       <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
         <v>2.1</v>
       </c>
-      <c r="G203" t="s">
+      <c r="J203" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>86</v>
       </c>
@@ -5963,13 +8039,23 @@
         <v>1</v>
       </c>
       <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
         <v>2.1</v>
       </c>
-      <c r="G204" t="s">
+      <c r="J204" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>65</v>
       </c>
@@ -5986,13 +8072,23 @@
         <v>1</v>
       </c>
       <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
         <v>1.6</v>
       </c>
-      <c r="G205" t="s">
+      <c r="J205" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>87</v>
       </c>
@@ -6003,13 +8099,23 @@
         <v>1</v>
       </c>
       <c r="F206">
+        <v>2</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
         <v>2.1</v>
       </c>
-      <c r="G206" t="s">
+      <c r="J206" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>88</v>
       </c>
@@ -6020,13 +8126,23 @@
         <v>1</v>
       </c>
       <c r="F207">
+        <v>2</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
         <v>2.1</v>
       </c>
-      <c r="G207" t="s">
+      <c r="J207" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>89</v>
       </c>
@@ -6037,13 +8153,23 @@
         <v>1</v>
       </c>
       <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
         <v>2.1</v>
       </c>
-      <c r="G208" t="s">
+      <c r="J208" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>90</v>
       </c>
@@ -6054,13 +8180,23 @@
         <v>1</v>
       </c>
       <c r="F209">
+        <v>2</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
         <v>2.1</v>
       </c>
-      <c r="G209" t="s">
+      <c r="J209" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>91</v>
       </c>
@@ -6071,13 +8207,23 @@
         <v>1</v>
       </c>
       <c r="F210">
+        <v>2</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
         <v>2.1</v>
       </c>
-      <c r="G210" t="s">
+      <c r="J210" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>92</v>
       </c>
@@ -6088,13 +8234,23 @@
         <v>1</v>
       </c>
       <c r="F211">
+        <v>2</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
         <v>2.1</v>
       </c>
-      <c r="G211" t="s">
+      <c r="J211" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>105</v>
       </c>
@@ -6111,10 +8267,20 @@
         <v>1</v>
       </c>
       <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>114</v>
       </c>
@@ -6131,10 +8297,20 @@
         <v>1</v>
       </c>
       <c r="F213">
+        <v>2</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
         <v>2.4</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>115</v>
       </c>
@@ -6151,10 +8327,20 @@
         <v>1</v>
       </c>
       <c r="F214">
+        <v>2</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
         <v>2.4</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>116</v>
       </c>
@@ -6171,10 +8357,20 @@
         <v>1</v>
       </c>
       <c r="F215">
+        <v>2</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
         <v>2.4</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>66</v>
       </c>
@@ -6191,13 +8387,23 @@
         <v>1</v>
       </c>
       <c r="F216">
+        <v>2</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
         <v>1.6</v>
       </c>
-      <c r="G216" t="s">
+      <c r="J216" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>117</v>
       </c>
@@ -6214,10 +8420,20 @@
         <v>1</v>
       </c>
       <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
         <v>2.4</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>118</v>
       </c>
@@ -6234,10 +8450,20 @@
         <v>1</v>
       </c>
       <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
         <v>2.4</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>119</v>
       </c>
@@ -6254,10 +8480,20 @@
         <v>1</v>
       </c>
       <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
         <v>2.4</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>153</v>
       </c>
@@ -6274,13 +8510,23 @@
         <v>1</v>
       </c>
       <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G220" t="s">
+      <c r="J220" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>154</v>
       </c>
@@ -6297,13 +8543,23 @@
         <v>1</v>
       </c>
       <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G221" t="s">
+      <c r="J221" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>155</v>
       </c>
@@ -6320,13 +8576,23 @@
         <v>1</v>
       </c>
       <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G222" t="s">
+      <c r="J222" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>156</v>
       </c>
@@ -6343,13 +8609,23 @@
         <v>1</v>
       </c>
       <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G223" t="s">
+      <c r="J223" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>157</v>
       </c>
@@ -6366,13 +8642,23 @@
         <v>1</v>
       </c>
       <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G224" t="s">
+      <c r="J224" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>158</v>
       </c>
@@ -6389,13 +8675,23 @@
         <v>1</v>
       </c>
       <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G225" t="s">
+      <c r="J225" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>159</v>
       </c>
@@ -6412,13 +8708,23 @@
         <v>1</v>
       </c>
       <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G226" t="s">
+      <c r="J226" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>67</v>
       </c>
@@ -6435,13 +8741,23 @@
         <v>1</v>
       </c>
       <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
         <v>1.6</v>
       </c>
-      <c r="G227" t="s">
+      <c r="J227" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>160</v>
       </c>
@@ -6458,13 +8774,23 @@
         <v>1</v>
       </c>
       <c r="F228">
+        <v>2</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G228" t="s">
+      <c r="J228" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>161</v>
       </c>
@@ -6481,13 +8807,23 @@
         <v>1</v>
       </c>
       <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G229" t="s">
+      <c r="J229" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>162</v>
       </c>
@@ -6504,13 +8840,23 @@
         <v>1</v>
       </c>
       <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G230" t="s">
+      <c r="J230" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>176</v>
       </c>
@@ -6527,16 +8873,26 @@
         <v>1</v>
       </c>
       <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
         <v>4.2</v>
       </c>
-      <c r="G231" t="s">
+      <c r="J231" t="s">
         <v>328</v>
       </c>
-      <c r="I231" t="s">
+      <c r="L231" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>196</v>
       </c>
@@ -6553,13 +8909,23 @@
         <v>1</v>
       </c>
       <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
         <v>5.2</v>
       </c>
-      <c r="G232" t="s">
+      <c r="J232" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>200</v>
       </c>
@@ -6576,13 +8942,23 @@
         <v>1</v>
       </c>
       <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
         <v>5.2</v>
       </c>
-      <c r="G233" t="s">
+      <c r="J233" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>204</v>
       </c>
@@ -6593,13 +8969,23 @@
         <v>1</v>
       </c>
       <c r="F234">
+        <v>2</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
         <v>5.2</v>
       </c>
-      <c r="G234" t="s">
+      <c r="J234" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>207</v>
       </c>
@@ -6610,13 +8996,23 @@
         <v>1</v>
       </c>
       <c r="F235">
+        <v>2</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
         <v>5.2</v>
       </c>
-      <c r="G235" t="s">
+      <c r="J235" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>178</v>
       </c>
@@ -6633,13 +9029,23 @@
         <v>1</v>
       </c>
       <c r="F236">
+        <v>2</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
         <v>4.3</v>
       </c>
-      <c r="G236" t="s">
+      <c r="J236" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>179</v>
       </c>
@@ -6656,13 +9062,23 @@
         <v>1</v>
       </c>
       <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
         <v>4.3</v>
       </c>
-      <c r="G237" t="s">
+      <c r="J237" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>230</v>
       </c>
@@ -6679,13 +9095,23 @@
         <v>1</v>
       </c>
       <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
         <v>5.4</v>
       </c>
-      <c r="G238" t="s">
+      <c r="J238" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>231</v>
       </c>
@@ -6702,13 +9128,23 @@
         <v>1</v>
       </c>
       <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
         <v>5.4</v>
       </c>
-      <c r="G239" t="s">
+      <c r="J239" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>232</v>
       </c>
@@ -6725,13 +9161,23 @@
         <v>1</v>
       </c>
       <c r="F240">
+        <v>2</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
         <v>5.4</v>
       </c>
-      <c r="G240" t="s">
+      <c r="J240" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>233</v>
       </c>
@@ -6748,13 +9194,23 @@
         <v>1</v>
       </c>
       <c r="F241">
+        <v>2</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
         <v>5.4</v>
       </c>
-      <c r="G241" t="s">
+      <c r="J241" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>234</v>
       </c>
@@ -6771,13 +9227,23 @@
         <v>1</v>
       </c>
       <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
         <v>5.4</v>
       </c>
-      <c r="G242" t="s">
+      <c r="J242" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>235</v>
       </c>
@@ -6794,13 +9260,23 @@
         <v>1</v>
       </c>
       <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
         <v>5.4</v>
       </c>
-      <c r="G243" t="s">
+      <c r="J243" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>236</v>
       </c>
@@ -6817,13 +9293,23 @@
         <v>1</v>
       </c>
       <c r="F244">
+        <v>2</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
         <v>5.4</v>
       </c>
-      <c r="G244" t="s">
+      <c r="J244" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>237</v>
       </c>
@@ -6840,13 +9326,23 @@
         <v>1</v>
       </c>
       <c r="F245">
+        <v>2</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
         <v>5.4</v>
       </c>
-      <c r="G245" t="s">
+      <c r="J245" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>238</v>
       </c>
@@ -6863,13 +9359,23 @@
         <v>1</v>
       </c>
       <c r="F246">
+        <v>2</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
         <v>5.4</v>
       </c>
-      <c r="G246" t="s">
+      <c r="J246" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>239</v>
       </c>
@@ -6886,13 +9392,23 @@
         <v>1</v>
       </c>
       <c r="F247">
+        <v>2</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
         <v>5.4</v>
       </c>
-      <c r="G247" t="s">
+      <c r="J247" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>68</v>
       </c>
@@ -6909,13 +9425,23 @@
         <v>1</v>
       </c>
       <c r="F248">
+        <v>2</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
         <v>1.6</v>
       </c>
-      <c r="G248" t="s">
+      <c r="J248" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>240</v>
       </c>
@@ -6932,13 +9458,23 @@
         <v>1</v>
       </c>
       <c r="F249">
+        <v>2</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
         <v>5.4</v>
       </c>
-      <c r="G249" t="s">
+      <c r="J249" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>241</v>
       </c>
@@ -6955,13 +9491,23 @@
         <v>1</v>
       </c>
       <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
         <v>5.4</v>
       </c>
-      <c r="G250" t="s">
+      <c r="J250" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>242</v>
       </c>
@@ -6978,13 +9524,23 @@
         <v>1</v>
       </c>
       <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
         <v>5.4</v>
       </c>
-      <c r="G251" t="s">
+      <c r="J251" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>243</v>
       </c>
@@ -7001,13 +9557,23 @@
         <v>1</v>
       </c>
       <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
         <v>5.4</v>
       </c>
-      <c r="G252" t="s">
+      <c r="J252" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>244</v>
       </c>
@@ -7024,13 +9590,23 @@
         <v>1</v>
       </c>
       <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
         <v>5.4</v>
       </c>
-      <c r="G253" t="s">
+      <c r="J253" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>245</v>
       </c>
@@ -7047,13 +9623,23 @@
         <v>1</v>
       </c>
       <c r="F254">
+        <v>2</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
         <v>5.4</v>
       </c>
-      <c r="G254" t="s">
+      <c r="J254" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>246</v>
       </c>
@@ -7070,13 +9656,23 @@
         <v>1</v>
       </c>
       <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
         <v>5.4</v>
       </c>
-      <c r="G255" t="s">
+      <c r="J255" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>247</v>
       </c>
@@ -7093,13 +9689,23 @@
         <v>1</v>
       </c>
       <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
         <v>5.4</v>
       </c>
-      <c r="G256" t="s">
+      <c r="J256" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>268</v>
       </c>
@@ -7116,13 +9722,23 @@
         <v>1</v>
       </c>
       <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
         <v>6.2</v>
       </c>
-      <c r="G257" t="s">
+      <c r="J257" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>269</v>
       </c>
@@ -7139,13 +9755,23 @@
         <v>1</v>
       </c>
       <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
         <v>6.2</v>
       </c>
-      <c r="G258" t="s">
+      <c r="J258" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>270</v>
       </c>
@@ -7162,13 +9788,23 @@
         <v>1</v>
       </c>
       <c r="F259">
+        <v>2</v>
+      </c>
+      <c r="G259">
+        <f t="shared" ref="G259:G283" si="6">F259-H259</f>
+        <v>2</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
         <v>6.2</v>
       </c>
-      <c r="G259" t="s">
+      <c r="J259" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>271</v>
       </c>
@@ -7185,13 +9821,23 @@
         <v>1</v>
       </c>
       <c r="F260">
+        <v>2</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
         <v>6.2</v>
       </c>
-      <c r="G260" t="s">
+      <c r="J260" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>272</v>
       </c>
@@ -7208,13 +9854,23 @@
         <v>1</v>
       </c>
       <c r="F261">
+        <v>2</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
         <v>6.2</v>
       </c>
-      <c r="G261" t="s">
+      <c r="J261" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>273</v>
       </c>
@@ -7231,13 +9887,23 @@
         <v>1</v>
       </c>
       <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
         <v>6.2</v>
       </c>
-      <c r="G262" t="s">
+      <c r="J262" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>274</v>
       </c>
@@ -7254,13 +9920,23 @@
         <v>1</v>
       </c>
       <c r="F263">
+        <v>2</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
         <v>6.2</v>
       </c>
-      <c r="G263" t="s">
+      <c r="J263" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>275</v>
       </c>
@@ -7277,13 +9953,23 @@
         <v>1</v>
       </c>
       <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
         <v>6.2</v>
       </c>
-      <c r="G264" t="s">
+      <c r="J264" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>223</v>
       </c>
@@ -7300,10 +9986,20 @@
         <v>1</v>
       </c>
       <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
         <v>5.4</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>251</v>
       </c>
@@ -7320,13 +10016,23 @@
         <v>1</v>
       </c>
       <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
         <v>6.1</v>
       </c>
-      <c r="G266" t="s">
+      <c r="J266" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>252</v>
       </c>
@@ -7343,13 +10049,23 @@
         <v>1</v>
       </c>
       <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
         <v>6.1</v>
       </c>
-      <c r="G267" t="s">
+      <c r="J267" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>254</v>
       </c>
@@ -7366,10 +10082,20 @@
         <v>1</v>
       </c>
       <c r="F268">
+        <v>2</v>
+      </c>
+      <c r="G268">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
         <v>6.1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>69</v>
       </c>
@@ -7386,13 +10112,23 @@
         <v>1</v>
       </c>
       <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
         <v>1.6</v>
       </c>
-      <c r="G269" t="s">
+      <c r="J269" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>256</v>
       </c>
@@ -7409,13 +10145,23 @@
         <v>1</v>
       </c>
       <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
         <v>6.1</v>
       </c>
-      <c r="G270" t="s">
+      <c r="J270" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>227</v>
       </c>
@@ -7432,13 +10178,23 @@
         <v>1</v>
       </c>
       <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
         <v>5.4</v>
       </c>
-      <c r="G271" t="s">
+      <c r="J271" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>197</v>
       </c>
@@ -7455,13 +10211,23 @@
         <v>1</v>
       </c>
       <c r="F272">
+        <v>3</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
         <v>5.2</v>
       </c>
-      <c r="G272" t="s">
+      <c r="J272" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>198</v>
       </c>
@@ -7478,13 +10244,23 @@
         <v>1</v>
       </c>
       <c r="F273">
+        <v>3</v>
+      </c>
+      <c r="G273">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
         <v>5.2</v>
       </c>
-      <c r="G273" t="s">
+      <c r="J273" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>205</v>
       </c>
@@ -7495,13 +10271,23 @@
         <v>1</v>
       </c>
       <c r="F274">
+        <v>3</v>
+      </c>
+      <c r="G274">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
         <v>5.2</v>
       </c>
-      <c r="G274" t="s">
+      <c r="J274" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>57</v>
       </c>
@@ -7518,13 +10304,23 @@
         <v>1</v>
       </c>
       <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="G275">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
         <v>1.5</v>
       </c>
-      <c r="G275" t="s">
+      <c r="J275" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>41</v>
       </c>
@@ -7541,13 +10337,23 @@
         <v>1</v>
       </c>
       <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
+      </c>
+      <c r="I276">
         <v>1.4</v>
       </c>
-      <c r="G276" t="s">
+      <c r="J276" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>255</v>
       </c>
@@ -7564,10 +10370,20 @@
         <v>1</v>
       </c>
       <c r="F277">
+        <v>2</v>
+      </c>
+      <c r="G277">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
         <v>6.1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>80</v>
       </c>
@@ -7584,10 +10400,20 @@
         <v>1</v>
       </c>
       <c r="F278">
+        <v>2</v>
+      </c>
+      <c r="G278">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
         <v>2.1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>81</v>
       </c>
@@ -7604,11 +10430,21 @@
         <v>1</v>
       </c>
       <c r="F279">
+        <v>2</v>
+      </c>
+      <c r="G279">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
         <v>2.1</v>
       </c>
-      <c r="G279" s="1"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="J279" s="1"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>276</v>
       </c>
@@ -7619,13 +10455,23 @@
         <v>1</v>
       </c>
       <c r="F280">
+        <v>6</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
         <v>6.2</v>
       </c>
-      <c r="G280" t="s">
+      <c r="J280" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>32</v>
       </c>
@@ -7642,13 +10488,23 @@
         <v>1</v>
       </c>
       <c r="F281">
+        <v>2</v>
+      </c>
+      <c r="G281">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
         <v>1.4</v>
       </c>
-      <c r="G281" t="s">
+      <c r="J281" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>9</v>
       </c>
@@ -7665,13 +10521,23 @@
         <v>1</v>
       </c>
       <c r="F282">
+        <v>2</v>
+      </c>
+      <c r="G282">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G282" t="s">
+      <c r="J282" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>164</v>
       </c>
@@ -7688,16 +10554,37 @@
         <v>1</v>
       </c>
       <c r="F283">
+        <v>2</v>
+      </c>
+      <c r="G283">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
         <v>4.2</v>
       </c>
-      <c r="G283" t="s">
+      <c r="J283" t="s">
         <v>321</v>
       </c>
     </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F284">
+        <f>SUM(F2:F283)</f>
+        <v>2570</v>
+      </c>
+      <c r="G284">
+        <f>SUM(G2:G283)</f>
+        <v>2124</v>
+      </c>
+      <c r="H284">
+        <f>SUM(H2:H283)</f>
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:J285">
-    <sortCondition ref="I1:I285"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/sch/components.xlsx
+++ b/sch/components.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miha\Desktop\vezje-idp\kicad\sch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C65A4B-2133-462B-A69A-AB3DCDD4AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD4939F-83AF-4359-B689-B441FACF56B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6172FD7F-16CD-47D1-A3E4-D63AC8EC044E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="773" xr2:uid="{6172FD7F-16CD-47D1-A3E4-D63AC8EC044E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM-E-socket" sheetId="2" r:id="rId2"/>
+    <sheet name="BOM-E" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$K$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'BOM-E'!$A$1:$E$244</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="499">
   <si>
     <t>ID</t>
   </si>
@@ -1011,9 +1017,6 @@
     <t>WD2143-PD 03-15 8706</t>
   </si>
   <si>
-    <t>100 Ω   ±5%</t>
-  </si>
-  <si>
     <t>SN74LS629N</t>
   </si>
   <si>
@@ -1218,9 +1221,6 @@
     <t>150R</t>
   </si>
   <si>
-    <t>LS157</t>
-  </si>
-  <si>
     <t>WD2143-01</t>
   </si>
   <si>
@@ -1239,9 +1239,6 @@
     <t>Z80 PIO (MK 3881)</t>
   </si>
   <si>
-    <t>2n 2 (?)</t>
-  </si>
-  <si>
     <t>390p</t>
   </si>
   <si>
@@ -1260,15 +1257,9 @@
     <t>330p</t>
   </si>
   <si>
-    <t>580n</t>
-  </si>
-  <si>
     <t>1n</t>
   </si>
   <si>
-    <t>10n/10p</t>
-  </si>
-  <si>
     <t>S42</t>
   </si>
   <si>
@@ -1293,21 +1284,12 @@
     <t>Z80 CTC</t>
   </si>
   <si>
-    <t>LS74 / S74</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Read as black-brown-red. Most likely it is green-brown-red (5K1).</t>
-  </si>
-  <si>
     <t>"E75" (pg. 7)</t>
   </si>
   <si>
-    <t>Value Ref3</t>
-  </si>
-  <si>
     <t>MM2716Q (EPROM)</t>
   </si>
   <si>
@@ -1318,13 +1300,271 @@
   </si>
   <si>
     <t>Square</t>
+  </si>
+  <si>
+    <t>Shop Link</t>
+  </si>
+  <si>
+    <t>https://www.ic-elect.si/ic-74ls374-dip20-flip-flop.html</t>
+  </si>
+  <si>
+    <t>Value Ref 1</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/MC1488N?qs=d9gICRQKuCe4lrnGH3C7Bw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/MC1489N?qs=d9gICRQKuCdR4s3XhRyFEA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/314070811690
+https://www.ebay.com/itm/274950633485</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/274950610514 (2 pcs)
+https://www.ebay.com/itm/325153953504</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/172256511559</t>
+  </si>
+  <si>
+    <t>Pcs</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/354428927179</t>
+  </si>
+  <si>
+    <t>EPROM</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/325753393829</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS04N?qs=spW5eSrOWB4DgGWIHPxzvg%3D%3D
+https://www.ic-elect.si/ic-74ls04-dip14-inverter.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS05N?qs=spW5eSrOWB5U2y5XHWmnjA%3D%3D
+https://www.ic-elect.si/ic-74ls05-dip14-inverter-pbfree.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS08N?qs=spW5eSrOWB4y5MjcKVGhlA%3D%3D
+https://www.ic-elect.si/ic-74ls08-dip14-and-gate.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS10N?qs=sGAEpiMZZMutXGli8Ay4kBELecaPbA6BixFJp4A71TE%3D
+https://www.ic-elect.si/ic-74ls10-dip14-nand-gate.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS123N?qs=aZHVzqKrScD3CF1KN0ae4Q%3D%3D
+https://www.ic-elect.si/ic-74ls123-dip16-multivibrator.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS132N?qs=SL3LIuy2dWwicVI9J1F0sw%3D%3D
+https://www.ic-elect.si/ic-74ls132-dip14-schmitt-trigger.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS138N?qs=j01uVdFEFjG9iU5k7BL8mw%3D%3D
+https://www.ic-elect.si/ic-74ls138-dip16-decoder-demux.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS14N?qs=sGAEpiMZZMutXGli8Ay4kBELecaPbA6Baz7mo8DTZQo%3D
+https://www.ic-elect.si/ic-74ls14-dip14-schmitt-trigger.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS157N?qs=LzFo6vGRJ4stINDkpW5nIA%3D%3D
+https://www.ic-elect.si/ic-74ls157-dip16-multiplexer.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS20N?qs=EIjG%252BN7kn%252BksyasuSGdb8A%3D%3D
+https://www.ic-elect.si/ic-74ls20-dip14-nand-gate-35085.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS244N?qs=5WY7Uqh921ypecHduhX%252BiA%3D%3D
+https://www.ic-elect.si/ic-74ls244-so20w-driver.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS27N?qs=sGAEpiMZZMutXGli8Ay4kP28D9wZ8SQIwsPDjIqEADE%3D
+https://www.ic-elect.si/ic-74ls27-dip14-nor-gate.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS30N?qs=q2XTDbzbm6Bq0XyTd941gw%3D%3D
+https://www.ic-elect.si/ic-74ls30-dip14-nand-gate.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS32N?qs=q2XTDbzbm6DA9Mnew5GiLA%3D%3D
+https://www.ic-elect.si/ic-74ls32-dip14-or-gate.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS367AN?qs=SL3LIuy2dWytJLO3%252BW%2Fdvw%3D%3D
+https://www.ic-elect.si/ic-74ls367-dip16-buffer.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS38N?qs=q2XTDbzbm6CPeB2W6c2jlg%3D%3D
+https://www.ic-elect.si/ic-74ls38-dip14-nand-buffer.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS393N?qs=Tv815z3GeNTnF1V0GiYITA%3D%3D
+https://www.ic-elect.si/ic-74ls393-dip14-counter.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS42N?qs=sGAEpiMZZMutXGli8Ay4kHCkCpxTtxgl92ZLS6s4WlY%3D
+https://www.ic-elect.si/ic-74ls42-dip14-decoder.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS629N?qs=gb35HGp1gQJuZd938Z1iQA%3D%3D
+https://www.ic-elect.si/ic-74ls629-dip16-micsellaneous.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS74AN?qs=b0gIXGU74fP41yYZQO4%252BKQ%3D%3D
+https://www.ic-elect.si/ic-74ls74-dip14-flip-flop.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS86AN?qs=mTHRaKC2c7P%2FJtp1i2FCFw%3D%3D
+https://www.ic-elect.si/ic-74ls86-dip14-exor-gate.html</t>
+  </si>
+  <si>
+    <t>74S04 https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74S04N?qs=KaAwwOlwapsheoMb2c1Auw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/295313210497</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/354522453659</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/311081941531</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/281532121730</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/281536070161 (2 pcs)</t>
+  </si>
+  <si>
+    <t>Socket Count</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TE-Connectivity/1-2199298-4?qs=fK8dlpkaUMvpL10rY9Abiw%3D%3D
+https://www.ic-elect.si/podnozje-16-pin-prof.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TE-Connectivity/1-2199298-5?qs=sGAEpiMZZMvlX3nhDDO4AFokPzkb3saqAYzerZM2mv0%3D
+https://www.ic-elect.si/podnozje-18-pin-prof-pak-26kos.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TE-Connectivity/1-2199298-6?qs=fK8dlpkaUMvuMXpJTs4GlA%3D%3D
+https://www.ic-elect.si/podnozje-20-pin-prof-pak-24kos.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TE-Connectivity/1-2199298-8?qs=fK8dlpkaUMsSY7Gqcrol0Q%3D%3D
+https://www.ic-elect.si/podnozje-24-pin-prof-pak-20kos.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TE-Connectivity/1-2199299-2?qs=fK8dlpkaUMsXyJ%2FBqcw4Fg%3D%3D
+https://www.ic-elect.si/podnozje-28-pin-prof-pak-17kos.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TE-Connectivity/1-2199299-5?qs=fK8dlpkaUMthXjoyadQV1Q%3D%3D
+https://www.ic-elect.si/podnozje-40-pin-prof-pak-12kos.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TE-Connectivity/1-2199298-3?qs=fK8dlpkaUMtBOtVI99wRlQ%3D%3D
+https://www.ic-elect.si/podnozje-14-pin-prof-pak-34kos.html</t>
+  </si>
+  <si>
+    <t>68 Ω   ±5%</t>
+  </si>
+  <si>
+    <t>68 uF 25 V</t>
+  </si>
+  <si>
+    <t>100 uF 40 V</t>
+  </si>
+  <si>
+    <t>VARTA SafeTronic 3.6 V</t>
+  </si>
+  <si>
+    <t>2n2</t>
+  </si>
+  <si>
+    <t>380K Y5P / 390K Y5P</t>
+  </si>
+  <si>
+    <t>390K Y5P</t>
+  </si>
+  <si>
+    <t>684 100V</t>
+  </si>
+  <si>
+    <t>1n0</t>
+  </si>
+  <si>
+    <t>68uF 25V</t>
+  </si>
+  <si>
+    <t>BA 513</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>4.7 kΩ   ±5% </t>
+  </si>
+  <si>
+    <t>150 Ω   ±5%</t>
+  </si>
+  <si>
+    <t>390 Ω   ±5%</t>
+  </si>
+  <si>
+    <t>560 Ω   ±5%</t>
+  </si>
+  <si>
+    <t>BZX 2,7</t>
+  </si>
+  <si>
+    <t>Zener diode</t>
+  </si>
+  <si>
+    <t>Blue resistor (tolerance less than 1%)</t>
+  </si>
+  <si>
+    <t>Measured at 9K/43K 52K (Ref 3)</t>
+  </si>
+  <si>
+    <t>Measured at 16K/31K 51K (Ref 3). First value between 1 and 2, second between 2 and 3.</t>
+  </si>
+  <si>
+    <t>Most likely 680 nF.</t>
+  </si>
+  <si>
+    <t>C7 should be read from the board, not from the schema.</t>
+  </si>
+  <si>
+    <t>10n / 10p (?)</t>
+  </si>
+  <si>
+    <t>580n (680n?)</t>
+  </si>
+  <si>
+    <t>5K1   ±5%</t>
+  </si>
+  <si>
+    <t>56 Ω   ±5%</t>
+  </si>
+  <si>
+    <t>220 Ω   ±5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1341,6 +1581,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1363,10 +1611,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1374,8 +1623,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1688,10 +1948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A507EC0B-FECA-46C5-861D-53A4B99CDA9D}">
-  <dimension ref="A1:L284"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="J278" sqref="J278"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1699,34 +1960,33 @@
     <col min="3" max="3" width="15.83984375" customWidth="1"/>
     <col min="4" max="4" width="15.5234375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.3125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.15625" customWidth="1"/>
-    <col min="12" max="12" width="53.9453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>343</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -1735,13 +1995,10 @@
         <v>125</v>
       </c>
       <c r="K1" t="s">
-        <v>426</v>
-      </c>
-      <c r="L1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>79</v>
       </c>
@@ -1752,7 +2009,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1761,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <f>F2-H2</f>
+        <f t="shared" ref="G2:G65" si="0">F2-H2</f>
         <v>3</v>
       </c>
       <c r="H2">
@@ -1770,8 +2027,11 @@
       <c r="I2">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>71</v>
       </c>
@@ -1785,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">F3-H3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H3">
@@ -1794,8 +2054,11 @@
       <c r="I3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>96</v>
       </c>
@@ -1822,7 +2085,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1849,7 +2112,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>199</v>
       </c>
@@ -1876,7 +2139,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>121</v>
       </c>
@@ -1887,7 +2150,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1905,8 +2168,11 @@
       <c r="I7">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>75</v>
       </c>
@@ -1917,7 +2183,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1935,8 +2201,11 @@
       <c r="I8">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>97</v>
       </c>
@@ -1963,7 +2232,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>83</v>
       </c>
@@ -1974,7 +2243,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1992,8 +2261,11 @@
       <c r="I10">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>98</v>
       </c>
@@ -2020,7 +2292,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>99</v>
       </c>
@@ -2047,7 +2319,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2074,7 +2346,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>101</v>
       </c>
@@ -2101,7 +2373,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>102</v>
       </c>
@@ -2128,7 +2400,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>174</v>
       </c>
@@ -2139,7 +2411,7 @@
         <v>168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2157,8 +2429,11 @@
       <c r="I16">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>175</v>
       </c>
@@ -2169,7 +2444,7 @@
         <v>169</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2187,8 +2462,11 @@
       <c r="I17">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>203</v>
       </c>
@@ -2215,7 +2493,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>72</v>
       </c>
@@ -2238,8 +2516,11 @@
       <c r="I19">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>250</v>
       </c>
@@ -2250,7 +2531,7 @@
         <v>239</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2268,8 +2549,11 @@
       <c r="I20">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>10</v>
       </c>
@@ -2280,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2302,7 +2586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2313,7 +2597,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2335,7 +2619,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>61</v>
       </c>
@@ -2358,8 +2642,11 @@
       <c r="I23">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>8</v>
       </c>
@@ -2370,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2392,7 +2679,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>253</v>
       </c>
@@ -2402,8 +2689,8 @@
       <c r="C25" t="s">
         <v>242</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>411</v>
+      <c r="D25" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2421,8 +2708,14 @@
       <c r="I25">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25" t="s">
+        <v>478</v>
+      </c>
+      <c r="K25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>62</v>
       </c>
@@ -2445,8 +2738,11 @@
       <c r="I26">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>52</v>
       </c>
@@ -2457,7 +2753,7 @@
         <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2475,8 +2771,11 @@
       <c r="I27">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>37</v>
       </c>
@@ -2487,7 +2786,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2505,8 +2804,11 @@
       <c r="I28">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>34</v>
       </c>
@@ -2516,8 +2818,8 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>413</v>
+      <c r="D29" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2535,8 +2837,14 @@
       <c r="I29">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" t="s">
+        <v>475</v>
+      </c>
+      <c r="K29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>35</v>
       </c>
@@ -2547,7 +2855,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2565,8 +2873,11 @@
       <c r="I30">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>95</v>
       </c>
@@ -2593,29 +2904,29 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <f>E32*2</f>
-        <v>8</v>
+        <f t="shared" ref="F32:F47" si="1">E32*2</f>
+        <v>2</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="J32" t="s">
         <v>283</v>
@@ -2623,27 +2934,27 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F47" si="1">E33*2</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J33" t="s">
         <v>283</v>
@@ -2651,7 +2962,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>3</v>
@@ -2671,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J34" t="s">
         <v>283</v>
@@ -2679,7 +2990,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>3</v>
@@ -2699,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="s">
         <v>283</v>
@@ -2707,27 +3018,27 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="J36" t="s">
         <v>283</v>
@@ -2735,7 +3046,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>3</v>
@@ -2755,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2.2999999999999998</v>
+        <v>6.2</v>
       </c>
       <c r="J37" t="s">
         <v>283</v>
@@ -2763,27 +3074,27 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="J38" t="s">
         <v>283</v>
@@ -2791,7 +3102,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>3</v>
@@ -2811,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="J39" t="s">
         <v>283</v>
@@ -2819,27 +3130,27 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="J40" t="s">
         <v>283</v>
@@ -2875,27 +3186,27 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>5.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="J42" t="s">
         <v>283</v>
@@ -2903,27 +3214,27 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>5.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J43" t="s">
         <v>283</v>
@@ -2931,27 +3242,27 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="J44" t="s">
         <v>283</v>
@@ -2959,27 +3270,27 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -2987,27 +3298,27 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="J46" t="s">
         <v>283</v>
@@ -3015,27 +3326,27 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>6.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J47" t="s">
         <v>283</v>
@@ -3052,7 +3363,7 @@
         <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3085,7 +3396,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3184,7 +3495,7 @@
         <v>254</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3203,7 +3514,7 @@
         <v>6.2</v>
       </c>
       <c r="J52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3217,7 +3528,7 @@
         <v>247</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3250,7 +3561,7 @@
         <v>248</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3283,7 +3594,7 @@
         <v>249</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3302,7 +3613,7 @@
         <v>6.1</v>
       </c>
       <c r="J55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3316,7 +3627,7 @@
         <v>250</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3349,7 +3660,7 @@
         <v>251</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3382,7 +3693,7 @@
         <v>252</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3401,7 +3712,7 @@
         <v>6.1</v>
       </c>
       <c r="J58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3415,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3448,7 +3759,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3481,7 +3792,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3514,7 +3825,7 @@
         <v>49</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3547,7 +3858,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3580,7 +3891,7 @@
         <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3613,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3646,7 +3957,7 @@
         <v>31</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3655,7 +3966,7 @@
         <v>20</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G66:G129" si="2">F66-H66</f>
         <v>19</v>
       </c>
       <c r="H66">
@@ -3679,7 +3990,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3688,7 +3999,7 @@
         <v>20</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="2">F67-H67</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H67">
@@ -3712,7 +4023,7 @@
         <v>55</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3745,7 +4056,7 @@
         <v>23</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3778,7 +4089,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3811,7 +4122,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3844,7 +4155,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3877,7 +4188,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3910,7 +4221,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3943,7 +4254,7 @@
         <v>120</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3976,7 +4287,7 @@
         <v>121</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4009,7 +4320,7 @@
         <v>119</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4042,7 +4353,7 @@
         <v>110</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4075,7 +4386,7 @@
         <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4108,7 +4419,7 @@
         <v>106</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4130,7 +4441,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>110</v>
       </c>
@@ -4141,7 +4452,7 @@
         <v>107</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4174,7 +4485,7 @@
         <v>108</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4207,7 +4518,7 @@
         <v>109</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4240,7 +4551,7 @@
         <v>92</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4273,7 +4584,7 @@
         <v>91</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4306,7 +4617,7 @@
         <v>74</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4339,7 +4650,7 @@
         <v>101</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4372,7 +4683,7 @@
         <v>75</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4405,7 +4716,7 @@
         <v>82</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4438,7 +4749,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4471,7 +4782,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4504,7 +4815,7 @@
         <v>76</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4537,7 +4848,7 @@
         <v>117</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4555,6 +4866,9 @@
       <c r="I93">
         <v>2.4</v>
       </c>
+      <c r="J93" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
@@ -4666,7 +4980,7 @@
         <v>132</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4699,7 +5013,7 @@
         <v>133</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4732,7 +5046,7 @@
         <v>126</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4765,7 +5079,7 @@
         <v>122</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4798,7 +5112,7 @@
         <v>26</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -4820,7 +5134,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>127</v>
       </c>
@@ -4886,7 +5200,7 @@
         <v>279</v>
       </c>
       <c r="K103" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4966,7 +5280,7 @@
         <v>129</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4999,7 +5313,7 @@
         <v>128</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5065,7 +5379,7 @@
         <v>166</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5098,7 +5412,7 @@
         <v>167</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5164,7 +5478,7 @@
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5285,7 +5599,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>183</v>
       </c>
@@ -5296,7 +5610,7 @@
         <v>177</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5329,7 +5643,7 @@
         <v>175</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5348,7 +5662,7 @@
         <v>4.3</v>
       </c>
       <c r="J117" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5362,7 +5676,7 @@
         <v>161</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5395,7 +5709,7 @@
         <v>162</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5428,7 +5742,7 @@
         <v>163</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5461,7 +5775,7 @@
         <v>164</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5494,7 +5808,7 @@
         <v>165</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5527,7 +5841,7 @@
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5560,7 +5874,7 @@
         <v>171</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5579,7 +5893,7 @@
         <v>4.2</v>
       </c>
       <c r="J124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5714,7 +6028,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>228</v>
       </c>
@@ -5725,7 +6039,7 @@
         <v>218</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -5747,7 +6061,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>225</v>
       </c>
@@ -5758,7 +6072,7 @@
         <v>215</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -5767,7 +6081,7 @@
         <v>16</v>
       </c>
       <c r="G130">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G130:G193" si="3">F130-H130</f>
         <v>15</v>
       </c>
       <c r="H130">
@@ -5791,7 +6105,7 @@
         <v>205</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5800,7 +6114,7 @@
         <v>14</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="3">F131-H131</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H131">
@@ -5810,7 +6124,7 @@
         <v>5.3</v>
       </c>
       <c r="J131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5824,7 +6138,7 @@
         <v>206</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -5843,7 +6157,7 @@
         <v>5.3</v>
       </c>
       <c r="J132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5857,7 +6171,7 @@
         <v>207</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -5890,7 +6204,7 @@
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -5920,10 +6234,10 @@
         <v>208</v>
       </c>
       <c r="C135" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -5956,7 +6270,7 @@
         <v>201</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -5975,7 +6289,7 @@
         <v>5.2</v>
       </c>
       <c r="J136" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5989,7 +6303,7 @@
         <v>199</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6022,7 +6336,7 @@
         <v>193</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6055,7 +6369,7 @@
         <v>203</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6074,7 +6388,7 @@
         <v>5.2</v>
       </c>
       <c r="J139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6209,7 +6523,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>229</v>
       </c>
@@ -6220,7 +6534,7 @@
         <v>219</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6253,7 +6567,7 @@
         <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6275,7 +6589,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>226</v>
       </c>
@@ -6286,7 +6600,7 @@
         <v>216</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6319,7 +6633,7 @@
         <v>209</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6352,7 +6666,7 @@
         <v>210</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6385,7 +6699,7 @@
         <v>211</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -6418,7 +6732,7 @@
         <v>202</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6451,7 +6765,7 @@
         <v>200</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -6470,7 +6784,7 @@
         <v>5.2</v>
       </c>
       <c r="J151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6484,7 +6798,7 @@
         <v>197</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6503,7 +6817,7 @@
         <v>5.2</v>
       </c>
       <c r="J152" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6517,7 +6831,7 @@
         <v>194</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6623,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <f>F156</f>
+        <f t="shared" ref="H156:H180" si="4">F156</f>
         <v>34</v>
       </c>
       <c r="I156">
@@ -6651,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" ref="H157:H180" si="4">F157</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="I157">
@@ -6689,7 +7003,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>70</v>
       </c>
@@ -6857,7 +7171,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>277</v>
       </c>
@@ -6913,7 +7227,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>257</v>
       </c>
@@ -6941,7 +7255,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>19</v>
       </c>
@@ -6997,7 +7311,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>224</v>
       </c>
@@ -7025,7 +7339,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>280</v>
       </c>
@@ -7053,7 +7367,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>279</v>
       </c>
@@ -7081,7 +7395,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>267</v>
       </c>
@@ -7109,7 +7423,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>222</v>
       </c>
@@ -7137,7 +7451,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>281</v>
       </c>
@@ -7193,7 +7507,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>282</v>
       </c>
@@ -7316,7 +7630,7 @@
         <v>62</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7349,7 +7663,7 @@
         <v>50</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7366,6 +7680,9 @@
       </c>
       <c r="I182">
         <v>1.5</v>
+      </c>
+      <c r="J182" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7397,6 +7714,9 @@
       <c r="I183">
         <v>1.4</v>
       </c>
+      <c r="J183" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
@@ -7409,7 +7729,7 @@
         <v>47</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -7426,6 +7746,9 @@
       </c>
       <c r="I184">
         <v>1.4</v>
+      </c>
+      <c r="J184" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7439,7 +7762,7 @@
         <v>46</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -7456,6 +7779,9 @@
       </c>
       <c r="I185">
         <v>1.4</v>
+      </c>
+      <c r="J185" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7469,7 +7795,7 @@
         <v>45</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -7486,6 +7812,9 @@
       </c>
       <c r="I186">
         <v>1.4</v>
+      </c>
+      <c r="J186" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7499,7 +7828,7 @@
         <v>44</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -7516,6 +7845,9 @@
       </c>
       <c r="I187">
         <v>1.4</v>
+      </c>
+      <c r="J187" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7529,7 +7861,7 @@
         <v>43</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7546,6 +7878,9 @@
       </c>
       <c r="I188">
         <v>1.4</v>
+      </c>
+      <c r="J188" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7592,7 +7927,7 @@
         <v>33</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -7625,7 +7960,7 @@
         <v>34</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -7658,7 +7993,7 @@
         <v>63</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -7680,7 +8015,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>28</v>
       </c>
@@ -7713,7 +8048,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>106</v>
       </c>
@@ -7724,7 +8059,7 @@
         <v>104</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7733,7 +8068,7 @@
         <v>2</v>
       </c>
       <c r="G194">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G194:G257" si="5">F194-H194</f>
         <v>2</v>
       </c>
       <c r="H194">
@@ -7742,8 +8077,14 @@
       <c r="I194">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J194" t="s">
+        <v>487</v>
+      </c>
+      <c r="K194" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>107</v>
       </c>
@@ -7754,7 +8095,7 @@
         <v>105</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -7763,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G258" si="5">F195-H195</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H195">
@@ -7772,8 +8113,11 @@
       <c r="I195">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J195" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>165</v>
       </c>
@@ -7784,7 +8128,7 @@
         <v>159</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -7805,8 +8149,11 @@
       <c r="J196" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K196" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>36</v>
       </c>
@@ -7835,8 +8182,11 @@
       <c r="I197">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J197" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>249</v>
       </c>
@@ -7866,10 +8216,10 @@
         <v>6.1</v>
       </c>
       <c r="J198" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>20</v>
       </c>
@@ -7880,7 +8230,7 @@
         <v>21</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -7902,7 +8252,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>2</v>
       </c>
@@ -7913,7 +8263,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -7935,7 +8285,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>3</v>
       </c>
@@ -7943,10 +8293,10 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -7968,7 +8318,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>12</v>
       </c>
@@ -7979,7 +8329,7 @@
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -8001,7 +8351,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>85</v>
       </c>
@@ -8028,7 +8378,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>86</v>
       </c>
@@ -8055,7 +8405,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>65</v>
       </c>
@@ -8066,7 +8416,7 @@
         <v>64</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -8088,7 +8438,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>87</v>
       </c>
@@ -8115,7 +8465,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>88</v>
       </c>
@@ -8142,7 +8492,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>89</v>
       </c>
@@ -8169,7 +8519,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>90</v>
       </c>
@@ -8196,7 +8546,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>91</v>
       </c>
@@ -8223,7 +8573,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>92</v>
       </c>
@@ -8261,7 +8611,7 @@
         <v>103</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -8278,6 +8628,9 @@
       </c>
       <c r="I212">
         <v>2.2000000000000002</v>
+      </c>
+      <c r="J212" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8309,6 +8662,9 @@
       <c r="I213">
         <v>2.4</v>
       </c>
+      <c r="J213" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
@@ -8339,6 +8695,9 @@
       <c r="I214">
         <v>2.4</v>
       </c>
+      <c r="J214" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
@@ -8369,6 +8728,9 @@
       <c r="I215">
         <v>2.4</v>
       </c>
+      <c r="J215" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
@@ -8381,7 +8743,7 @@
         <v>65</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -8432,6 +8794,9 @@
       <c r="I217">
         <v>2.4</v>
       </c>
+      <c r="J217" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
@@ -8462,6 +8827,9 @@
       <c r="I218">
         <v>2.4</v>
       </c>
+      <c r="J218" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
@@ -8492,6 +8860,9 @@
       <c r="I219">
         <v>2.4</v>
       </c>
+      <c r="J219" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
@@ -8504,7 +8875,7 @@
         <v>148</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -8537,7 +8908,7 @@
         <v>149</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -8570,7 +8941,7 @@
         <v>150</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -8603,7 +8974,7 @@
         <v>151</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -8636,7 +9007,7 @@
         <v>152</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -8658,7 +9029,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>158</v>
       </c>
@@ -8669,7 +9040,7 @@
         <v>153</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -8691,7 +9062,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>159</v>
       </c>
@@ -8702,7 +9073,7 @@
         <v>154</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -8724,7 +9095,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>67</v>
       </c>
@@ -8735,7 +9106,7 @@
         <v>66</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -8757,7 +9128,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>160</v>
       </c>
@@ -8768,7 +9139,7 @@
         <v>155</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -8790,7 +9161,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>161</v>
       </c>
@@ -8801,7 +9172,7 @@
         <v>156</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -8823,7 +9194,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>162</v>
       </c>
@@ -8834,7 +9205,7 @@
         <v>157</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8856,7 +9227,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>176</v>
       </c>
@@ -8867,7 +9238,7 @@
         <v>170</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -8886,13 +9257,10 @@
         <v>4.2</v>
       </c>
       <c r="J231" t="s">
-        <v>328</v>
-      </c>
-      <c r="L231" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>196</v>
       </c>
@@ -8903,7 +9271,7 @@
         <v>188</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -8925,7 +9293,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>200</v>
       </c>
@@ -8936,7 +9304,7 @@
         <v>192</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -8958,7 +9326,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>204</v>
       </c>
@@ -8985,7 +9353,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>207</v>
       </c>
@@ -9012,7 +9380,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>178</v>
       </c>
@@ -9023,7 +9391,7 @@
         <v>172</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -9045,7 +9413,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>179</v>
       </c>
@@ -9056,7 +9424,7 @@
         <v>173</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -9078,7 +9446,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>230</v>
       </c>
@@ -9089,7 +9457,7 @@
         <v>220</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -9111,7 +9479,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>231</v>
       </c>
@@ -9122,7 +9490,7 @@
         <v>221</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -9144,7 +9512,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>232</v>
       </c>
@@ -9155,7 +9523,7 @@
         <v>222</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -9188,7 +9556,7 @@
         <v>223</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -9221,7 +9589,7 @@
         <v>224</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -9254,7 +9622,7 @@
         <v>225</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -9287,7 +9655,7 @@
         <v>226</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -9320,7 +9688,7 @@
         <v>227</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -9353,7 +9721,7 @@
         <v>228</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -9372,7 +9740,7 @@
         <v>5.4</v>
       </c>
       <c r="J246" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9386,7 +9754,7 @@
         <v>229</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -9405,7 +9773,7 @@
         <v>5.4</v>
       </c>
       <c r="J247" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9419,7 +9787,7 @@
         <v>67</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -9452,7 +9820,7 @@
         <v>230</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -9485,7 +9853,7 @@
         <v>231</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -9518,7 +9886,7 @@
         <v>232</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -9551,7 +9919,7 @@
         <v>233</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -9584,7 +9952,7 @@
         <v>234</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -9617,7 +9985,7 @@
         <v>235</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -9650,7 +10018,7 @@
         <v>236</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -9683,7 +10051,7 @@
         <v>237</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -9705,7 +10073,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>268</v>
       </c>
@@ -9716,7 +10084,7 @@
         <v>256</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -9735,10 +10103,10 @@
         <v>6.2</v>
       </c>
       <c r="J257" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>269</v>
       </c>
@@ -9749,7 +10117,7 @@
         <v>257</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -9758,7 +10126,7 @@
         <v>2</v>
       </c>
       <c r="G258">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G258:G321" si="6">F258-H258</f>
         <v>2</v>
       </c>
       <c r="H258">
@@ -9768,10 +10136,10 @@
         <v>6.2</v>
       </c>
       <c r="J258" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>270</v>
       </c>
@@ -9782,7 +10150,7 @@
         <v>258</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -9791,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="G259">
-        <f t="shared" ref="G259:G283" si="6">F259-H259</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H259">
@@ -9801,10 +10169,10 @@
         <v>6.2</v>
       </c>
       <c r="J259" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>271</v>
       </c>
@@ -9815,7 +10183,7 @@
         <v>259</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -9837,7 +10205,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>272</v>
       </c>
@@ -9848,7 +10216,7 @@
         <v>260</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -9870,7 +10238,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>273</v>
       </c>
@@ -9881,7 +10249,7 @@
         <v>261</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -9900,10 +10268,10 @@
         <v>6.2</v>
       </c>
       <c r="J262" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>274</v>
       </c>
@@ -9914,7 +10282,7 @@
         <v>262</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -9933,10 +10301,10 @@
         <v>6.2</v>
       </c>
       <c r="J263" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>275</v>
       </c>
@@ -9947,7 +10315,7 @@
         <v>263</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -9969,7 +10337,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>223</v>
       </c>
@@ -9980,7 +10348,7 @@
         <v>213</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -9998,8 +10366,11 @@
       <c r="I265">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J265" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>251</v>
       </c>
@@ -10010,7 +10381,7 @@
         <v>240</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -10029,10 +10400,10 @@
         <v>6.1</v>
       </c>
       <c r="J266" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>252</v>
       </c>
@@ -10043,7 +10414,7 @@
         <v>241</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -10062,10 +10433,10 @@
         <v>6.1</v>
       </c>
       <c r="J267" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>254</v>
       </c>
@@ -10076,7 +10447,7 @@
         <v>243</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -10094,8 +10465,11 @@
       <c r="I268">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J268" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>69</v>
       </c>
@@ -10106,7 +10480,7 @@
         <v>68</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -10128,7 +10502,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>256</v>
       </c>
@@ -10139,7 +10513,7 @@
         <v>245</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -10161,7 +10535,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>227</v>
       </c>
@@ -10172,7 +10546,7 @@
         <v>217</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -10191,10 +10565,10 @@
         <v>5.4</v>
       </c>
       <c r="J271" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>197</v>
       </c>
@@ -10205,7 +10579,7 @@
         <v>189</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -10224,10 +10598,13 @@
         <v>5.2</v>
       </c>
       <c r="J272" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>482</v>
+      </c>
+      <c r="K272" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>198</v>
       </c>
@@ -10238,7 +10615,7 @@
         <v>190</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -10257,10 +10634,13 @@
         <v>5.2</v>
       </c>
       <c r="J273" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>482</v>
+      </c>
+      <c r="K273" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>205</v>
       </c>
@@ -10287,7 +10667,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>57</v>
       </c>
@@ -10298,7 +10678,7 @@
         <v>56</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -10320,7 +10700,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>41</v>
       </c>
@@ -10353,7 +10733,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>255</v>
       </c>
@@ -10364,7 +10744,7 @@
         <v>244</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -10382,8 +10762,11 @@
       <c r="I277">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J277" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>80</v>
       </c>
@@ -10394,7 +10777,7 @@
         <v>78</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -10412,8 +10795,11 @@
       <c r="I278">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J278" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>81</v>
       </c>
@@ -10424,7 +10810,7 @@
         <v>79</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -10442,9 +10828,11 @@
       <c r="I279">
         <v>2.1</v>
       </c>
-      <c r="J279" s="1"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J279" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>276</v>
       </c>
@@ -10468,10 +10856,10 @@
         <v>6.2</v>
       </c>
       <c r="J280" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>32</v>
       </c>
@@ -10482,7 +10870,7 @@
         <v>32</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -10504,7 +10892,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>9</v>
       </c>
@@ -10515,7 +10903,7 @@
         <v>11</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -10537,7 +10925,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>164</v>
       </c>
@@ -10548,7 +10936,7 @@
         <v>158</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -10570,7 +10958,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F284">
         <f>SUM(F2:F283)</f>
         <v>2570</v>
@@ -10585,7 +10973,3268 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K285" xr:uid="{A507EC0B-FECA-46C5-861D-53A4B99CDA9D}">
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="1 kΩ   ±5%"/>
+        <filter val="1.5 kΩ   ±5%"/>
+        <filter val="10 kΩ   ±5%"/>
+        <filter val="100 Ω   ±5%"/>
+        <filter val="104 50V"/>
+        <filter val="1843 20 kHZ 11034"/>
+        <filter val="20 kΩ   ±5% "/>
+        <filter val="22 pF"/>
+        <filter val="3.3 kΩ   ±5%"/>
+        <filter val="33 Ω   ±5%"/>
+        <filter val="330"/>
+        <filter val="330 Ω   ±5%"/>
+        <filter val="4.7 kΩ   ±5%"/>
+        <filter val="406C MC1489A 75189AN"/>
+        <filter val="47 kΩ   ±5%"/>
+        <filter val="47 Ω   ±5% "/>
+        <filter val="7404PC"/>
+        <filter val="74LS08 PC"/>
+        <filter val="74LS132NB"/>
+        <filter val="74LS14N"/>
+        <filter val="74LS244N"/>
+        <filter val="74LS374N"/>
+        <filter val="8.000 SUNNY 2779"/>
+        <filter val="8624KD D765AC-2"/>
+        <filter val="920 Ω   ±5% / 820 Ω   ±5%"/>
+        <filter val="CR"/>
+        <filter val="CR (15 MΩ   ±0.05% / ±0.02%)"/>
+        <filter val="CR (74LS04 PC)"/>
+        <filter val="CR (SN74LS3…)"/>
+        <filter val="DM7404N"/>
+        <filter val="DM74LS04N"/>
+        <filter val="DM74LS393N"/>
+        <filter val="DM74S74N"/>
+        <filter val="EL74LS10J"/>
+        <filter val="EL74S04"/>
+        <filter val="HD74LS42P"/>
+        <filter val="LED"/>
+        <filter val="M3764A-15 65518"/>
+        <filter val="MC14411 P QR8610"/>
+        <filter val="MC1488P RQ8319"/>
+        <filter val="MC1488P T8444"/>
+        <filter val="MC1489P K8539"/>
+        <filter val="MM58167AN"/>
+        <filter val="MOSTEK TC8639 MK3880N-4 Z80-CPU"/>
+        <filter val="PH"/>
+        <filter val="PWR"/>
+        <filter val="QRT-38 I"/>
+        <filter val="SN54LS367AJ"/>
+        <filter val="SN74LS01N"/>
+        <filter val="SN74LS05J"/>
+        <filter val="SN74LS08N"/>
+        <filter val="SN74LS123N"/>
+        <filter val="SN74LS138N"/>
+        <filter val="SN74LS157N"/>
+        <filter val="SN74LS20N"/>
+        <filter val="SN74LS244N"/>
+        <filter val="SN74LS32N"/>
+        <filter val="SN74LS367AN"/>
+        <filter val="SN74LS629N"/>
+        <filter val="SN74LS74AN"/>
+        <filter val="SN74LS86N"/>
+        <filter val="T74LS244BI"/>
+        <filter val="T74LS27BI"/>
+        <filter val="T74LS30BI"/>
+        <filter val="T74LS38BI"/>
+        <filter val="WD1691PE 8348"/>
+        <filter val="WD2143-PD 03-15 8706"/>
+        <filter val="Z8410AB1 Z80ADMA 28618"/>
+        <filter val="ZILOG Z84??BPS Z80? SIO/1 8338 W"/>
+        <filter val="ZILOG Z8430APE Z80A CTC 8342"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K284">
+    <sortCondition ref="B2:B284"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D64CAE-8C67-480F-8B07-5B75546A5D0C}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.05078125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>212</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>219</v>
+      </c>
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>220</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>218</v>
+      </c>
+      <c r="B38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>258</v>
+      </c>
+      <c r="B43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>259</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>261</v>
+      </c>
+      <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>266</v>
+      </c>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>193</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>194</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>151</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>190</v>
+      </c>
+      <c r="B65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>192</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>173</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>172</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>58</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>59</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>113</v>
+      </c>
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>26</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>27</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>168</v>
+      </c>
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>167</v>
+      </c>
+      <c r="B93" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>129</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95">
+        <v>24</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>169</v>
+      </c>
+      <c r="B98" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98">
+        <v>28</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>131</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99">
+        <v>40</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C102">
+    <sortCondition ref="C2:C102"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A40BA8F-AFFC-4D60-89B3-F498D80C2CF3}">
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="12.47265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31.3125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1488</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1488</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1489</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1489</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1489</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2164</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2716</v>
+      </c>
+      <c r="D23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>433</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="5">
+        <v>8272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>434</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="3">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>430</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>217</v>
+      </c>
+      <c r="B33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>208</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>211</v>
+      </c>
+      <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>263</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" t="s">
+        <v>333</v>
+      </c>
+      <c r="E37">
+        <v>14</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>212</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>215</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>209</v>
+      </c>
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D46" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D47" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D48" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D51" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51">
+        <v>16</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D52" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53">
+        <v>14</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D56" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D61" t="s">
+        <v>289</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D62" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D63" t="s">
+        <v>284</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D64" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>168</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D65" t="s">
+        <v>289</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" t="s">
+        <v>284</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D67" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>260</v>
+      </c>
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68">
+        <v>14</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69">
+        <v>14</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>216</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>219</v>
+      </c>
+      <c r="B71" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>220</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72" t="s">
+        <v>273</v>
+      </c>
+      <c r="E72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" t="s">
+        <v>303</v>
+      </c>
+      <c r="E73">
+        <v>14</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D75" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D76" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>218</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" t="s">
+        <v>279</v>
+      </c>
+      <c r="E78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D79" t="s">
+        <v>297</v>
+      </c>
+      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" t="s">
+        <v>291</v>
+      </c>
+      <c r="E80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>424</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D82" t="s">
+        <v>310</v>
+      </c>
+      <c r="E82">
+        <v>14</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D83" t="s">
+        <v>310</v>
+      </c>
+      <c r="E83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D84" t="s">
+        <v>310</v>
+      </c>
+      <c r="E84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>206</v>
+      </c>
+      <c r="B85" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D85" t="s">
+        <v>330</v>
+      </c>
+      <c r="E85">
+        <v>14</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D86" t="s">
+        <v>304</v>
+      </c>
+      <c r="E86">
+        <v>16</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>177</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D87" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D88" t="s">
+        <v>272</v>
+      </c>
+      <c r="E88">
+        <v>14</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>259</v>
+      </c>
+      <c r="B89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D89" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>261</v>
+      </c>
+      <c r="B90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+      <c r="E90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>262</v>
+      </c>
+      <c r="B91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" t="s">
+        <v>272</v>
+      </c>
+      <c r="E92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>40</v>
+      </c>
+      <c r="B93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>201</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D94" t="s">
+        <v>272</v>
+      </c>
+      <c r="E94">
+        <v>14</v>
+      </c>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>266</v>
+      </c>
+      <c r="B95" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D95" t="s">
+        <v>341</v>
+      </c>
+      <c r="E95">
+        <v>14</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D96" t="s">
+        <v>290</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>456</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>129</v>
+      </c>
+      <c r="B97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" t="s">
+        <v>312</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
+        <v>457</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>172</v>
+      </c>
+      <c r="B98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" t="s">
+        <v>327</v>
+      </c>
+      <c r="E98">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>458</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>169</v>
+      </c>
+      <c r="B99" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D99" t="s">
+        <v>323</v>
+      </c>
+      <c r="E99">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>462</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" t="s">
+        <v>309</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
+      </c>
+      <c r="F100" t="s">
+        <v>459</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D101" t="s">
+        <v>307</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
+      </c>
+      <c r="F101" t="s">
+        <v>461</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D102" t="s">
+        <v>308</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+      <c r="F102" t="s">
+        <v>460</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E244" xr:uid="{2A40BA8F-AFFC-4D60-89B3-F498D80C2CF3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G104">
+    <sortCondition ref="C2:C104"/>
+    <sortCondition ref="E2:E104"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sch/components.xlsx
+++ b/sch/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miha\Desktop\vezje-idp\kicad\sch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0F370D-7E38-4250-AA97-6BC022227324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4CDBD-65E1-4915-A169-D9BBBF55F73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="773" xr2:uid="{6172FD7F-16CD-47D1-A3E4-D63AC8EC044E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="773" activeTab="3" xr2:uid="{6172FD7F-16CD-47D1-A3E4-D63AC8EC044E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="578">
   <si>
     <t>ID</t>
   </si>
@@ -1273,9 +1273,6 @@
   </si>
   <si>
     <t>Shop Link</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/ic-74ls374-dip20-flip-flop.html</t>
   </si>
   <si>
     <t>Value Ref 1</t>
@@ -1704,69 +1701,7 @@
     <t>5.1 K</t>
   </si>
   <si>
-    <t>https://www.ic-elect.si/upor-150r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-220r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-330r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-390r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-820r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-10k-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/KOA-Speer/RK1-4DCT52R1505F?qs=FsveJYYILCJecIT90En2dA%3D%3D
-https://eu.mouser.com/ProductDetail/SEI-Stackpole/RNV14FAL15M0?qs=FESYatJ8odI%2FJbrYyfXHXw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-1k-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-1k5-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-20k-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-33r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-3k3-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-47r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-47k-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-4k7-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-560r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-56r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-5k1-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/upor-68r-0207-5-0-25w-cfr-25.html</t>
-  </si>
-  <si>
     <t>Zener 2.7 V</t>
-  </si>
-  <si>
-    <t>https://www.ic-elect.si/zener-1-2w-2v7-do-35.html (1/4 W, 3.1-3.9 mm)
-[https://www.ic-elect.si/zener-1-3w-2v7-do-41.html (1.3 W, 4.1 mm)]</t>
   </si>
   <si>
     <t>Blue resistor (tolerance 1 or 2%)</t>
@@ -1799,6 +1734,72 @@
   </si>
   <si>
     <t>https://www.delko.si/sl/industrijska-36v-80-mah-ni-mh-polnilna-gp-baterija.html</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-68R?qs=gt1LBUVyoHm6An10nuV6tA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JB-52-5K1?qs=oypCK0zG325u7aO1BrawZA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/SN74LS374N?qs=5h8QSfodyRhdi57F6aDgtA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-150R?qs=19cKSROHwrCg%252Bkk55kO4wg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-220R?qs=19cKSROHwrDd9peoB7SMkA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-330R?qs=KUIzHt%2Fe91lTLFUOlcnheg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-390R?qs=KUIzHt%2Fe91lGSy2ISVMHLA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JT-52-820R?qs=KUIzHt%2Fe91nf0zePCO9VQg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JB-52-10R?qs=2kOmHSv6VfRGU0i%252Br6puJQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-1K?qs=FK4oyhsNhknmd5zXOZ4mTQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JB-52-1K5?qs=%2F35zJ5USjokhRsfIrdvtSA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-20K?qs=19cKSROHwrBYX3RisskriA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JB-52-33R?qs=oypCK0zG324sJ2xUpnz%2FXg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-3K3?qs=19cKSROHwrAt1R6Bf0Zq3Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-47R?qs=b3QwWlrdtsujDBo8o1s8iQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JB-52-47K?qs=2kOmHSv6VfThFUpI%252B9lRAg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JB-52-4K7?qs=oypCK0zG3252T%2FvSUvCH9g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JT-52-560R?qs=KUIzHt%2Fe91mnjLaCZK7hbg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/CFR-25JR-52-56R?qs=lfEcNZWccVmso0SeMV07sA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Vishay-Semiconductors/TZX2V7C-TR?qs=25SNtymhSqPE5w2ZtavYCQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/KOA-Speer/RK1-4DCT52R1505F?qs=FsveJYYILCJecIT90En2dA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1878,6 +1879,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2197,7 +2206,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2238,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M1" t="s">
         <v>406</v>
@@ -2280,7 +2289,7 @@
         <v>2.1</v>
       </c>
       <c r="J2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2307,7 +2316,7 @@
         <v>1.6</v>
       </c>
       <c r="J3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2402,7 +2411,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2421,7 +2430,7 @@
         <v>2.4</v>
       </c>
       <c r="J7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2454,7 +2463,7 @@
         <v>2.1</v>
       </c>
       <c r="J8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2514,7 +2523,7 @@
         <v>2.1</v>
       </c>
       <c r="J10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2770,7 +2779,7 @@
         <v>1.6</v>
       </c>
       <c r="J19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2803,7 +2812,7 @@
         <v>6.1</v>
       </c>
       <c r="J20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2896,7 +2905,7 @@
         <v>1.6</v>
       </c>
       <c r="J23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2944,7 +2953,7 @@
         <v>241</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2963,10 +2972,10 @@
         <v>6.1</v>
       </c>
       <c r="J25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2993,7 +3002,7 @@
         <v>1.6</v>
       </c>
       <c r="J26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3026,7 +3035,7 @@
         <v>1.5</v>
       </c>
       <c r="J27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3059,7 +3068,7 @@
         <v>1.4</v>
       </c>
       <c r="J28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3073,7 +3082,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3092,10 +3101,10 @@
         <v>1.4</v>
       </c>
       <c r="J29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3128,7 +3137,7 @@
         <v>1.4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K30" s="2"/>
     </row>
@@ -3673,10 +3682,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3784,7 +3793,7 @@
         <v>333</v>
       </c>
       <c r="K52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3889,10 +3898,10 @@
         <v>6.1</v>
       </c>
       <c r="J55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L55" t="b">
         <f t="shared" ref="L55:L79" si="2">OR(ISNUMBER(SEARCH("LS", J55)),ISNUMBER(SEARCH("LS", K55)))</f>
@@ -4092,7 +4101,7 @@
         <v>295</v>
       </c>
       <c r="K60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L60" t="b">
         <f t="shared" si="2"/>
@@ -4132,7 +4141,7 @@
         <v>295</v>
       </c>
       <c r="K61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L61" t="b">
         <f t="shared" si="2"/>
@@ -4212,7 +4221,7 @@
         <v>285</v>
       </c>
       <c r="K63" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L63" t="b">
         <f t="shared" si="2"/>
@@ -4289,10 +4298,10 @@
         <v>1.3</v>
       </c>
       <c r="J65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L65" t="b">
         <f t="shared" si="2"/>
@@ -4329,10 +4338,10 @@
         <v>1.3</v>
       </c>
       <c r="J66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L66" t="b">
         <f t="shared" si="2"/>
@@ -4372,7 +4381,7 @@
         <v>285</v>
       </c>
       <c r="K67" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L67" t="b">
         <f t="shared" si="2"/>
@@ -4412,7 +4421,7 @@
         <v>296</v>
       </c>
       <c r="K68" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L68" t="b">
         <f t="shared" si="2"/>
@@ -4452,7 +4461,7 @@
         <v>285</v>
       </c>
       <c r="K69" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L69" t="b">
         <f t="shared" si="2"/>
@@ -4489,10 +4498,10 @@
         <v>1.2</v>
       </c>
       <c r="J70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L70" t="b">
         <f t="shared" si="2"/>
@@ -4532,7 +4541,7 @@
         <v>272</v>
       </c>
       <c r="K71" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L71" t="b">
         <f t="shared" si="2"/>
@@ -4630,7 +4639,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4652,7 +4661,7 @@
         <v>278</v>
       </c>
       <c r="K74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L74" t="b">
         <f t="shared" si="2"/>
@@ -4689,10 +4698,10 @@
         <v>2.4</v>
       </c>
       <c r="J75" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K75" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L75" t="b">
         <f t="shared" si="2"/>
@@ -4729,10 +4738,10 @@
         <v>2.4</v>
       </c>
       <c r="J76" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K76" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L76" t="b">
         <f t="shared" si="2"/>
@@ -4769,10 +4778,10 @@
         <v>2.4</v>
       </c>
       <c r="J77" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K77" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L77" t="b">
         <f t="shared" si="2"/>
@@ -4812,7 +4821,7 @@
         <v>285</v>
       </c>
       <c r="K78" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L78" t="b">
         <f t="shared" si="2"/>
@@ -4892,7 +4901,7 @@
         <v>302</v>
       </c>
       <c r="K80" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4997,7 +5006,7 @@
         <v>304</v>
       </c>
       <c r="K83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5073,7 +5082,7 @@
         <v>300</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5109,7 +5118,7 @@
         <v>272</v>
       </c>
       <c r="K86" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L86" t="b">
         <f t="shared" ref="L86:L93" si="4">OR(ISNUMBER(SEARCH("LS", J86)),ISNUMBER(SEARCH("LS", K86)))</f>
@@ -5149,7 +5158,7 @@
         <v>301</v>
       </c>
       <c r="K87" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L87" t="b">
         <f t="shared" si="4"/>
@@ -5186,7 +5195,7 @@
         <v>2.1</v>
       </c>
       <c r="J88" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K88" t="s">
         <v>298</v>
@@ -5229,7 +5238,7 @@
         <v>285</v>
       </c>
       <c r="K89" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L89" t="b">
         <f t="shared" si="4"/>
@@ -5269,7 +5278,7 @@
         <v>286</v>
       </c>
       <c r="K90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L90" t="b">
         <f t="shared" si="4"/>
@@ -5389,7 +5398,7 @@
         <v>296</v>
       </c>
       <c r="K93" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L93" t="b">
         <f t="shared" si="4"/>
@@ -5429,7 +5438,7 @@
         <v>311</v>
       </c>
       <c r="K94" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5465,7 +5474,7 @@
         <v>312</v>
       </c>
       <c r="K95" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5617,7 +5626,7 @@
         <v>306</v>
       </c>
       <c r="K99" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5690,10 +5699,10 @@
         <v>1.3</v>
       </c>
       <c r="J101" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K101" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L101" t="b">
         <f>OR(ISNUMBER(SEARCH("LS", J101)),ISNUMBER(SEARCH("LS", K101)))</f>
@@ -5805,7 +5814,7 @@
         <v>309</v>
       </c>
       <c r="K104" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5841,7 +5850,7 @@
         <v>309</v>
       </c>
       <c r="K105" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5917,7 +5926,7 @@
         <v>308</v>
       </c>
       <c r="K107" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L107" t="b">
         <f>OR(ISNUMBER(SEARCH("LS", J107)),ISNUMBER(SEARCH("LS", K107)))</f>
@@ -5957,7 +5966,7 @@
         <v>307</v>
       </c>
       <c r="K108" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5993,7 +6002,7 @@
         <v>320</v>
       </c>
       <c r="K109" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6069,7 +6078,7 @@
         <v>313</v>
       </c>
       <c r="K111" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6105,7 +6114,7 @@
         <v>285</v>
       </c>
       <c r="K112" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L112" t="b">
         <f>OR(ISNUMBER(SEARCH("LS", J112)),ISNUMBER(SEARCH("LS", K112)))</f>
@@ -6362,7 +6371,7 @@
         <v>285</v>
       </c>
       <c r="K119" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L119" t="b">
         <f>OR(ISNUMBER(SEARCH("LS", J119)),ISNUMBER(SEARCH("LS", K119)))</f>
@@ -6402,7 +6411,7 @@
         <v>317</v>
       </c>
       <c r="K120" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6435,7 +6444,7 @@
         <v>4.2</v>
       </c>
       <c r="J121" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K121" t="s">
         <v>319</v>
@@ -6478,7 +6487,7 @@
         <v>319</v>
       </c>
       <c r="K122" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L122" t="b">
         <f>OR(ISNUMBER(SEARCH("LS", J122)),ISNUMBER(SEARCH("LS", K122)))</f>
@@ -6515,10 +6524,10 @@
         <v>1.2</v>
       </c>
       <c r="J123" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K123" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L123" t="b">
         <f>OR(ISNUMBER(SEARCH("LS", J123)),ISNUMBER(SEARCH("LS", K123)))</f>
@@ -6598,7 +6607,7 @@
         <v>313</v>
       </c>
       <c r="K125" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6885,10 +6894,10 @@
         <v>5.3</v>
       </c>
       <c r="J133" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K133" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L133" t="b">
         <f t="shared" si="6"/>
@@ -6925,10 +6934,10 @@
         <v>1.2</v>
       </c>
       <c r="J134" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K134" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L134" t="b">
         <f t="shared" si="6"/>
@@ -6968,7 +6977,7 @@
         <v>272</v>
       </c>
       <c r="K135" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L135" t="b">
         <f t="shared" si="6"/>
@@ -7048,7 +7057,7 @@
         <v>286</v>
       </c>
       <c r="K137" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L137" t="b">
         <f t="shared" si="6"/>
@@ -7168,7 +7177,7 @@
         <v>313</v>
       </c>
       <c r="K140" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7345,7 +7354,7 @@
         <v>282</v>
       </c>
       <c r="K145" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L145" t="b">
         <f>OR(ISNUMBER(SEARCH("LS", J145)),ISNUMBER(SEARCH("LS", K145)))</f>
@@ -7415,7 +7424,7 @@
         <v>5.3</v>
       </c>
       <c r="J147" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K147" t="s">
         <v>298</v>
@@ -7455,10 +7464,10 @@
         <v>5.3</v>
       </c>
       <c r="J148" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K148" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L148" t="b">
         <f t="shared" si="7"/>
@@ -7495,10 +7504,10 @@
         <v>5.3</v>
       </c>
       <c r="J149" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K149" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L149" t="b">
         <f t="shared" si="7"/>
@@ -7538,7 +7547,7 @@
         <v>272</v>
       </c>
       <c r="K150" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L150" t="b">
         <f t="shared" si="7"/>
@@ -7578,7 +7587,7 @@
         <v>324</v>
       </c>
       <c r="K151" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L151" t="b">
         <f t="shared" si="7"/>
@@ -7618,7 +7627,7 @@
         <v>323</v>
       </c>
       <c r="K152" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L152" t="b">
         <f t="shared" si="7"/>
@@ -7698,7 +7707,7 @@
         <v>313</v>
       </c>
       <c r="K154" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7734,7 +7743,7 @@
         <v>313</v>
       </c>
       <c r="K155" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8500,7 +8509,7 @@
         <v>1.5</v>
       </c>
       <c r="J182" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8533,7 +8542,7 @@
         <v>1.4</v>
       </c>
       <c r="J183" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8698,7 +8707,7 @@
         <v>1.4</v>
       </c>
       <c r="J188" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8896,10 +8905,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J194" t="s">
+        <v>474</v>
+      </c>
+      <c r="M194" t="s">
         <v>475</v>
-      </c>
-      <c r="M194" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8932,7 +8941,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J195" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8968,7 +8977,7 @@
         <v>318</v>
       </c>
       <c r="M196" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -9001,7 +9010,7 @@
         <v>1.4</v>
       </c>
       <c r="J197" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -9481,7 +9490,7 @@
         <v>2.4</v>
       </c>
       <c r="J213" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9514,7 +9523,7 @@
         <v>2.4</v>
       </c>
       <c r="J214" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9547,7 +9556,7 @@
         <v>2.4</v>
       </c>
       <c r="J215" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9613,7 +9622,7 @@
         <v>2.4</v>
       </c>
       <c r="J217" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9646,7 +9655,7 @@
         <v>2.4</v>
       </c>
       <c r="J218" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9679,7 +9688,7 @@
         <v>2.4</v>
       </c>
       <c r="J219" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10075,7 +10084,7 @@
         <v>4.2</v>
       </c>
       <c r="J231" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11185,7 +11194,7 @@
         <v>5.4</v>
       </c>
       <c r="J265" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11284,7 +11293,7 @@
         <v>6.1</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K268" s="2"/>
     </row>
@@ -11417,10 +11426,10 @@
         <v>5.2</v>
       </c>
       <c r="J272" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M272" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11453,10 +11462,10 @@
         <v>5.2</v>
       </c>
       <c r="J273" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M273" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -11582,7 +11591,7 @@
         <v>6.1</v>
       </c>
       <c r="J277" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11596,7 +11605,7 @@
         <v>78</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -11615,7 +11624,7 @@
         <v>2.1</v>
       </c>
       <c r="J278" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11629,7 +11638,7 @@
         <v>79</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -11648,7 +11657,7 @@
         <v>2.1</v>
       </c>
       <c r="J279" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11880,7 +11889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D64CAE-8C67-480F-8B07-5B75546A5D0C}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -11899,7 +11908,7 @@
         <v>409</v>
       </c>
       <c r="D1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
         <v>412</v>
@@ -11919,7 +11928,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12475,7 +12484,7 @@
         <v>26</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12767,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -12784,7 +12793,7 @@
         <v>16</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12966,7 +12975,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -13005,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -13022,7 +13031,7 @@
         <v>4</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -13070,7 +13079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A40BA8F-AFFC-4D60-89B3-F498D80C2CF3}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13092,10 +13103,10 @@
         <v>336</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F1" t="s">
         <v>409</v>
@@ -13104,7 +13115,7 @@
         <v>412</v>
       </c>
       <c r="H1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -13121,13 +13132,13 @@
         <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F2">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -13147,7 +13158,7 @@
         <v>312</v>
       </c>
       <c r="E3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F3">
         <v>14</v>
@@ -13173,7 +13184,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -13193,7 +13204,7 @@
         <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -13213,7 +13224,7 @@
         <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F6">
         <v>14</v>
@@ -13238,8 +13249,8 @@
       <c r="F7">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>421</v>
+      <c r="G7" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -13279,7 +13290,7 @@
         <v>313</v>
       </c>
       <c r="E9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F9">
         <v>16</v>
@@ -13359,7 +13370,7 @@
         <v>313</v>
       </c>
       <c r="E13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F13">
         <v>16</v>
@@ -13439,7 +13450,7 @@
         <v>313</v>
       </c>
       <c r="E17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -13519,7 +13530,7 @@
         <v>313</v>
       </c>
       <c r="E21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -13539,7 +13550,7 @@
         <v>313</v>
       </c>
       <c r="E22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -13565,7 +13576,7 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -13585,13 +13596,13 @@
         <v>307</v>
       </c>
       <c r="E24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F24">
         <v>40</v>
       </c>
-      <c r="G24" t="s">
-        <v>423</v>
+      <c r="G24" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -13605,19 +13616,19 @@
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D25" t="s">
         <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F25">
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -13631,19 +13642,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D26" t="s">
         <v>286</v>
       </c>
       <c r="E26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F26">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -13657,13 +13668,13 @@
         <v>198</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D27" t="s">
         <v>286</v>
       </c>
       <c r="E27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F27">
         <v>14</v>
@@ -13677,7 +13688,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D28" t="s">
         <v>292</v>
@@ -13689,7 +13700,7 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -13714,8 +13725,8 @@
       <c r="F29">
         <v>24</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>417</v>
+      <c r="G29" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -13735,13 +13746,13 @@
         <v>300</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F30">
         <v>24</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>418</v>
+      <c r="G30" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -13766,8 +13777,8 @@
       <c r="F31">
         <v>14</v>
       </c>
-      <c r="G31" t="s">
-        <v>419</v>
+      <c r="G31" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -13784,16 +13795,16 @@
         <v>346</v>
       </c>
       <c r="D32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F32">
         <v>14</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -13813,7 +13824,7 @@
         <v>272</v>
       </c>
       <c r="E33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F33">
         <v>14</v>
@@ -13833,7 +13844,7 @@
         <v>272</v>
       </c>
       <c r="E34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F34">
         <v>14</v>
@@ -13853,7 +13864,7 @@
         <v>301</v>
       </c>
       <c r="E35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F35">
         <v>14</v>
@@ -13873,7 +13884,7 @@
         <v>272</v>
       </c>
       <c r="E36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F36">
         <v>14</v>
@@ -13893,7 +13904,7 @@
         <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F37">
         <v>14</v>
@@ -13913,13 +13924,13 @@
         <v>282</v>
       </c>
       <c r="E38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F38">
         <v>14</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -13945,7 +13956,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H39">
         <v>6</v>
@@ -14071,7 +14082,7 @@
         <v>14</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -14097,7 +14108,7 @@
         <v>16</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -14137,13 +14148,13 @@
         <v>324</v>
       </c>
       <c r="E48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F48">
         <v>14</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -14160,7 +14171,7 @@
         <v>352</v>
       </c>
       <c r="D49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E49" t="s">
         <v>319</v>
@@ -14169,7 +14180,7 @@
         <v>16</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -14189,7 +14200,7 @@
         <v>319</v>
       </c>
       <c r="E50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F50">
         <v>16</v>
@@ -14209,13 +14220,13 @@
         <v>296</v>
       </c>
       <c r="E51" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F51">
         <v>14</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -14235,7 +14246,7 @@
         <v>296</v>
       </c>
       <c r="E52" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F52">
         <v>14</v>
@@ -14261,7 +14272,7 @@
         <v>16</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -14301,13 +14312,13 @@
         <v>308</v>
       </c>
       <c r="E55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F55">
         <v>14</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -14327,13 +14338,13 @@
         <v>295</v>
       </c>
       <c r="E56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F56">
         <v>20</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H56">
         <v>14</v>
@@ -14353,7 +14364,7 @@
         <v>295</v>
       </c>
       <c r="E57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F57">
         <v>20</v>
@@ -14373,7 +14384,7 @@
         <v>285</v>
       </c>
       <c r="E58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F58">
         <v>20</v>
@@ -14390,10 +14401,10 @@
         <v>345</v>
       </c>
       <c r="D59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F59">
         <v>20</v>
@@ -14410,10 +14421,10 @@
         <v>345</v>
       </c>
       <c r="D60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F60">
         <v>20</v>
@@ -14433,7 +14444,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F61">
         <v>20</v>
@@ -14453,7 +14464,7 @@
         <v>285</v>
       </c>
       <c r="E62" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F62">
         <v>20</v>
@@ -14473,7 +14484,7 @@
         <v>285</v>
       </c>
       <c r="E63" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F63">
         <v>20</v>
@@ -14493,7 +14504,7 @@
         <v>285</v>
       </c>
       <c r="E64" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F64">
         <v>20</v>
@@ -14510,10 +14521,10 @@
         <v>345</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F65">
         <v>20</v>
@@ -14533,7 +14544,7 @@
         <v>285</v>
       </c>
       <c r="E66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F66">
         <v>20</v>
@@ -14553,7 +14564,7 @@
         <v>285</v>
       </c>
       <c r="E67" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F67">
         <v>20</v>
@@ -14570,10 +14581,10 @@
         <v>345</v>
       </c>
       <c r="D68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E68" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F68">
         <v>20</v>
@@ -14590,10 +14601,10 @@
         <v>345</v>
       </c>
       <c r="D69" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E69" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F69">
         <v>20</v>
@@ -14610,16 +14621,16 @@
         <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E70" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F70">
         <v>14</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -14636,16 +14647,16 @@
         <v>375</v>
       </c>
       <c r="D71" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E71" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F71">
         <v>14</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -14662,10 +14673,10 @@
         <v>375</v>
       </c>
       <c r="D72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F72">
         <v>14</v>
@@ -14682,10 +14693,10 @@
         <v>375</v>
       </c>
       <c r="D73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F73">
         <v>14</v>
@@ -14702,10 +14713,10 @@
         <v>375</v>
       </c>
       <c r="D74" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E74" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F74">
         <v>14</v>
@@ -14731,7 +14742,7 @@
         <v>14</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H75">
         <v>6</v>
@@ -14748,7 +14759,7 @@
         <v>353</v>
       </c>
       <c r="D76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E76" t="s">
         <v>298</v>
@@ -14828,7 +14839,7 @@
         <v>353</v>
       </c>
       <c r="D80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E80" t="s">
         <v>298</v>
@@ -14857,7 +14868,7 @@
         <v>16</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -14903,7 +14914,7 @@
         <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>413</v>
+        <v>558</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -14920,16 +14931,16 @@
         <v>377</v>
       </c>
       <c r="D84" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E84" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F84">
         <v>14</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -14946,10 +14957,10 @@
         <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F85">
         <v>14</v>
@@ -14966,10 +14977,10 @@
         <v>377</v>
       </c>
       <c r="D86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F86">
         <v>14</v>
@@ -14989,13 +15000,13 @@
         <v>323</v>
       </c>
       <c r="E87" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F87">
         <v>14</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -15021,7 +15032,7 @@
         <v>16</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -15047,7 +15058,7 @@
         <v>16</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -15073,7 +15084,7 @@
         <v>14</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H90">
         <v>6</v>
@@ -15194,13 +15205,13 @@
         <v>333</v>
       </c>
       <c r="E96" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F96">
         <v>14</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -15220,13 +15231,13 @@
         <v>306</v>
       </c>
       <c r="E97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F97">
         <v>20</v>
       </c>
-      <c r="G97" t="s">
-        <v>445</v>
+      <c r="G97" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -15246,13 +15257,13 @@
         <v>320</v>
       </c>
       <c r="E98" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F98">
         <v>18</v>
       </c>
-      <c r="G98" t="s">
-        <v>446</v>
+      <c r="G98" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -15272,13 +15283,13 @@
         <v>317</v>
       </c>
       <c r="E99" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F99">
         <v>28</v>
       </c>
-      <c r="G99" t="s">
-        <v>450</v>
+      <c r="G99" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -15298,13 +15309,13 @@
         <v>304</v>
       </c>
       <c r="E100" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F100">
         <v>40</v>
       </c>
-      <c r="G100" t="s">
-        <v>447</v>
+      <c r="G100" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -15324,13 +15335,13 @@
         <v>302</v>
       </c>
       <c r="E101" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F101">
         <v>40</v>
       </c>
-      <c r="G101" t="s">
-        <v>449</v>
+      <c r="G101" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -15355,8 +15366,8 @@
       <c r="F102">
         <v>40</v>
       </c>
-      <c r="G102" t="s">
-        <v>448</v>
+      <c r="G102" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -15378,14 +15389,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3A042D-6F7D-437F-9937-DB1D3903B57A}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="10" max="10" width="25.1015625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="7.1015625" customWidth="1"/>
-    <col min="13" max="13" width="58.47265625" customWidth="1"/>
+    <col min="13" max="13" width="58.47265625" style="5" customWidth="1"/>
     <col min="14" max="14" width="10.7890625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15418,13 +15431,16 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L1" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>575</v>
       </c>
       <c r="N1" t="s">
         <v>406</v>
@@ -15459,16 +15475,16 @@
         <v>2.4</v>
       </c>
       <c r="J2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>546</v>
+      <c r="M2" s="11" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15500,7 +15516,7 @@
         <v>2.4</v>
       </c>
       <c r="J3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15532,7 +15548,7 @@
         <v>2.4</v>
       </c>
       <c r="J4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15564,7 +15580,7 @@
         <v>2.4</v>
       </c>
       <c r="J5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15596,7 +15612,7 @@
         <v>2.4</v>
       </c>
       <c r="J6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15628,7 +15644,7 @@
         <v>2.4</v>
       </c>
       <c r="J7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15660,16 +15676,16 @@
         <v>1.4</v>
       </c>
       <c r="J8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>547</v>
+      <c r="M8" s="11" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15704,13 +15720,13 @@
         <v>329</v>
       </c>
       <c r="K9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>548</v>
+      <c r="M9" s="12" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15742,16 +15758,16 @@
         <v>1.4</v>
       </c>
       <c r="J10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
-        <v>549</v>
+      <c r="M10" s="11" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15786,13 +15802,13 @@
         <v>289</v>
       </c>
       <c r="K11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
-      <c r="M11" t="s">
-        <v>550</v>
+      <c r="M11" s="11" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15859,13 +15875,13 @@
         <v>290</v>
       </c>
       <c r="K13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L13">
         <v>4</v>
       </c>
-      <c r="M13" t="s">
-        <v>551</v>
+      <c r="M13" s="11" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15993,19 +16009,19 @@
         <v>1.5</v>
       </c>
       <c r="J17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="M17" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>165</v>
       </c>
@@ -16037,16 +16053,16 @@
         <v>318</v>
       </c>
       <c r="K18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>552</v>
+      <c r="M18" s="13" t="s">
+        <v>577</v>
       </c>
       <c r="N18" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -16081,13 +16097,13 @@
         <v>274</v>
       </c>
       <c r="K19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L19">
         <v>26</v>
       </c>
-      <c r="M19" t="s">
-        <v>553</v>
+      <c r="M19" s="11" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -16922,16 +16938,16 @@
         <v>276</v>
       </c>
       <c r="K45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="M45" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="M45" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>106</v>
       </c>
@@ -16960,19 +16976,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J46" t="s">
+        <v>474</v>
+      </c>
+      <c r="K46" t="s">
+        <v>545</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="N46" t="s">
         <v>475</v>
-      </c>
-      <c r="K46" t="s">
-        <v>565</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="N46" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -17007,13 +17023,13 @@
         <v>284</v>
       </c>
       <c r="K47" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="M47" t="s">
-        <v>555</v>
+      <c r="M47" s="11" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -17048,13 +17064,13 @@
         <v>314</v>
       </c>
       <c r="K48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L48">
         <v>10</v>
       </c>
-      <c r="M48" t="s">
-        <v>556</v>
+      <c r="M48" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17377,13 +17393,13 @@
         <v>270</v>
       </c>
       <c r="K58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L58">
         <v>10</v>
       </c>
-      <c r="M58" t="s">
-        <v>557</v>
+      <c r="M58" s="11" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17706,13 +17722,13 @@
         <v>332</v>
       </c>
       <c r="K68" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
-      <c r="M68" t="s">
-        <v>558</v>
+      <c r="M68" s="11" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17747,13 +17763,13 @@
         <v>330</v>
       </c>
       <c r="K69" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L69">
         <v>2</v>
       </c>
-      <c r="M69" t="s">
-        <v>559</v>
+      <c r="M69" s="11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17820,13 +17836,13 @@
         <v>328</v>
       </c>
       <c r="K71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L71">
         <v>8</v>
       </c>
-      <c r="M71" t="s">
-        <v>560</v>
+      <c r="M71" s="11" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -18018,7 +18034,7 @@
         <v>5.4</v>
       </c>
       <c r="J77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -18082,16 +18098,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K79" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
-      <c r="M79" t="s">
-        <v>561</v>
+      <c r="M79" s="11" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -18123,16 +18139,16 @@
         <v>1.4</v>
       </c>
       <c r="J80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
-      <c r="M80" t="s">
-        <v>562</v>
+      <c r="M80" s="11" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -18164,16 +18180,16 @@
         <v>4.2</v>
       </c>
       <c r="J81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K81" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
-      <c r="M81" t="s">
-        <v>563</v>
+      <c r="M81" s="11" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -18205,16 +18221,16 @@
         <v>6.1</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
-      <c r="M82" t="s">
-        <v>564</v>
+      <c r="M82" s="12" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -18222,6 +18238,29 @@
     <sortCondition ref="D2:D82"/>
     <sortCondition ref="B2:B82"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{42E0DCFC-8871-4E95-B6CC-43A277B8DEB2}"/>
+    <hyperlink ref="M9" r:id="rId2" xr:uid="{E3217A02-A8C4-4F9F-878A-6B87BF51C928}"/>
+    <hyperlink ref="M8" r:id="rId3" xr:uid="{2471DA2A-9163-413F-A79A-ADF19832513A}"/>
+    <hyperlink ref="M10" r:id="rId4" xr:uid="{C55ED55E-4938-4B12-B9D3-6FBEA40FC5AF}"/>
+    <hyperlink ref="M11" r:id="rId5" xr:uid="{A7988052-A8F5-4AAF-8E7C-86566731AC5A}"/>
+    <hyperlink ref="M13" r:id="rId6" xr:uid="{37C9658B-C285-457A-B181-E67E5CC86AE1}"/>
+    <hyperlink ref="M17" r:id="rId7" xr:uid="{06C8AC6D-DB8B-4E2E-8DAD-C4612D8E2ACD}"/>
+    <hyperlink ref="M19" r:id="rId8" xr:uid="{117312FF-492B-4C8E-8C13-EA15DD01A670}"/>
+    <hyperlink ref="M45" r:id="rId9" xr:uid="{12C82AE4-7AE4-41EF-8544-661452760378}"/>
+    <hyperlink ref="M47" r:id="rId10" xr:uid="{56701756-22AC-47DA-946B-118E758F8232}"/>
+    <hyperlink ref="M48" r:id="rId11" xr:uid="{6301D18A-3336-490F-AC1A-3D1EEAAC3A29}"/>
+    <hyperlink ref="M58" r:id="rId12" xr:uid="{6A975214-3D65-46F5-B6ED-936E279CAD1E}"/>
+    <hyperlink ref="M68" r:id="rId13" xr:uid="{4B4B0154-690E-4A78-A5DA-DCA3D50679A2}"/>
+    <hyperlink ref="M69" r:id="rId14" xr:uid="{51C00003-98D8-4FA2-8DFD-9E6571F9B1E8}"/>
+    <hyperlink ref="M71" r:id="rId15" xr:uid="{55D0241C-5879-40FC-A259-1FA739439842}"/>
+    <hyperlink ref="M79" r:id="rId16" xr:uid="{B440E0BF-AA4D-467C-8E13-1016EBB9FB67}"/>
+    <hyperlink ref="M80" r:id="rId17" xr:uid="{B864F5C8-47B8-4660-9ED2-01E13FDB6F35}"/>
+    <hyperlink ref="M81" r:id="rId18" xr:uid="{80209C7C-D54D-4B24-86C0-25B62FBD4B66}"/>
+    <hyperlink ref="M82" r:id="rId19" xr:uid="{621AF746-F6B2-4A0D-BB11-1BAD00092CCD}"/>
+    <hyperlink ref="M46" r:id="rId20" xr:uid="{6918D5BB-6DB2-405C-96C5-E749BC01A39E}"/>
+    <hyperlink ref="M18" r:id="rId21" xr:uid="{FEE61E9B-E15C-4B2C-A0C6-991187CEE277}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18268,10 +18307,10 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L1" t="s">
         <v>406</v>
@@ -18301,7 +18340,7 @@
         <v>1.6</v>
       </c>
       <c r="J2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18315,7 +18354,7 @@
         <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -18333,7 +18372,7 @@
         <v>2.4</v>
       </c>
       <c r="J3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18365,7 +18404,7 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18397,7 +18436,7 @@
         <v>2.1</v>
       </c>
       <c r="J5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18489,7 +18528,7 @@
         <v>1.6</v>
       </c>
       <c r="J8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18521,7 +18560,7 @@
         <v>6.1</v>
       </c>
       <c r="J9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18612,7 +18651,7 @@
         <v>1.6</v>
       </c>
       <c r="J12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18659,7 +18698,7 @@
         <v>241</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -18677,10 +18716,10 @@
         <v>6.1</v>
       </c>
       <c r="J14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18707,7 +18746,7 @@
         <v>1.6</v>
       </c>
       <c r="J15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18739,7 +18778,7 @@
         <v>1.5</v>
       </c>
       <c r="J16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18771,7 +18810,7 @@
         <v>1.4</v>
       </c>
       <c r="J17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18785,7 +18824,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -18803,10 +18842,10 @@
         <v>1.4</v>
       </c>
       <c r="J18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18838,7 +18877,7 @@
         <v>1.4</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -19283,7 +19322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A869D5-A3FA-4848-A3BD-179525AC44C8}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -19320,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -19389,13 +19430,13 @@
         <v>6.1</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="L3" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -19409,7 +19450,7 @@
         <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -19428,13 +19469,13 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K4" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="L4" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -19448,7 +19489,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -19467,10 +19508,10 @@
         <v>2.1</v>
       </c>
       <c r="J5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K5" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -19534,7 +19575,7 @@
         <v>288</v>
       </c>
       <c r="K7" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="115.2" x14ac:dyDescent="0.55000000000000004">
@@ -19570,7 +19611,7 @@
         <v>275</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -19606,7 +19647,7 @@
         <v>315</v>
       </c>
       <c r="K9" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -19639,10 +19680,10 @@
         <v>2.1</v>
       </c>
       <c r="J10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K10" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
